--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szkb7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A1A02-6EE9-4889-A5D4-90CAA1E0C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF3818-16B0-4829-A946-8206CCC4D40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Áruház" sheetId="3" r:id="rId2"/>
+    <sheet name="Raktár" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -211,6 +204,141 @@
   </si>
   <si>
     <t>10.10.0.143</t>
+  </si>
+  <si>
+    <t>Router_P_1</t>
+  </si>
+  <si>
+    <t>Router_P_2</t>
+  </si>
+  <si>
+    <t>Router_P_3</t>
+  </si>
+  <si>
+    <t>Switch1_P_2</t>
+  </si>
+  <si>
+    <t>Switch1_P_1</t>
+  </si>
+  <si>
+    <t>PC_P_1</t>
+  </si>
+  <si>
+    <t>PC_P_2</t>
+  </si>
+  <si>
+    <t>PC_P_4</t>
+  </si>
+  <si>
+    <t>PC_P_3</t>
+  </si>
+  <si>
+    <t>Router_P_4</t>
+  </si>
+  <si>
+    <t>ASA_P</t>
+  </si>
+  <si>
+    <t>Laptop_P_1</t>
+  </si>
+  <si>
+    <t>Laptop_P_2</t>
+  </si>
+  <si>
+    <t>Pozsony_A</t>
+  </si>
+  <si>
+    <t>Pozsony_B</t>
+  </si>
+  <si>
+    <t>Pozsony_C</t>
+  </si>
+  <si>
+    <t>Pozsony_D</t>
+  </si>
+  <si>
+    <t>Pozsony_E</t>
+  </si>
+  <si>
+    <t>Pozsony_F</t>
+  </si>
+  <si>
+    <t>Pozsony_G</t>
+  </si>
+  <si>
+    <t>192.168.5.32</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>192.168.5.33 - 192.168.5.38</t>
+  </si>
+  <si>
+    <t>192.168.5.39</t>
+  </si>
+  <si>
+    <t>192.168.5.40</t>
+  </si>
+  <si>
+    <t>192.168.5.41 - 192.168.5.46</t>
+  </si>
+  <si>
+    <t>192.168.5.47</t>
+  </si>
+  <si>
+    <t>192.168.5.48</t>
+  </si>
+  <si>
+    <t>192.168.5.49 - 192.168.5.54</t>
+  </si>
+  <si>
+    <t>192.168.5.55</t>
+  </si>
+  <si>
+    <t>192.168.5.56</t>
+  </si>
+  <si>
+    <t>192.168.5.57 - 192.168.5.62</t>
+  </si>
+  <si>
+    <t>192.168.5.63</t>
+  </si>
+  <si>
+    <t>192.168.5.64</t>
+  </si>
+  <si>
+    <t>192.168.5.65 - 192.168.5.70</t>
+  </si>
+  <si>
+    <t>192.168.5.71</t>
+  </si>
+  <si>
+    <t>192.168.5.72</t>
+  </si>
+  <si>
+    <t>192.168.5.73 - 192.168.5.78</t>
+  </si>
+  <si>
+    <t>192.168.5.79</t>
+  </si>
+  <si>
+    <t>192.168.5.0</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>192.168.5.1 - 192.168.5.30</t>
+  </si>
+  <si>
+    <t>192.168.5.31</t>
   </si>
 </sst>
 </file>
@@ -644,67 +772,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,14 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,6 +814,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,19 +1225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1106,420 +1251,428 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="J6" s="39" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="J6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="J7" s="40" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="3"/>
+      <c r="J7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="22">
         <v>35</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="22">
         <v>62</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="J8" s="40" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="22">
         <v>35</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="22">
         <v>62</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="Q8" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="J9" s="40" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="J9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="22">
         <v>10</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="22">
         <v>14</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="35"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="35"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="35"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="35"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="35"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="35"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="35"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="35"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="35"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="35"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="35"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="35"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="35"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="35"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="35"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="35"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1536,6 +1689,1056 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="43" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="J6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="3"/>
+      <c r="J7" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="46">
+        <v>4</v>
+      </c>
+      <c r="L7" s="46">
+        <v>6</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="46">
+        <v>4</v>
+      </c>
+      <c r="L8" s="46">
+        <v>6</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="J9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="46">
+        <v>4</v>
+      </c>
+      <c r="L9" s="46">
+        <v>6</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="J10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="46">
+        <v>4</v>
+      </c>
+      <c r="L10" s="46">
+        <v>6</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="J11" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="46">
+        <v>4</v>
+      </c>
+      <c r="L11" s="46">
+        <v>6</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="3"/>
+      <c r="J12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="46">
+        <v>4</v>
+      </c>
+      <c r="L12" s="46">
+        <v>6</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="J13" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="46">
+        <v>16</v>
+      </c>
+      <c r="L13" s="46">
+        <v>30</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="J6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="3"/>
+      <c r="J7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="22">
+        <v>35</v>
+      </c>
+      <c r="L7" s="22">
+        <v>62</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="22">
+        <v>35</v>
+      </c>
+      <c r="L8" s="22">
+        <v>62</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="J9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="22">
+        <v>10</v>
+      </c>
+      <c r="L9" s="22">
+        <v>14</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:A8"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF3818-16B0-4829-A946-8206CCC4D40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D4CD7-DFA3-43D9-935F-8F797CE63D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
     <sheet name="Áruház" sheetId="3" r:id="rId2"/>
     <sheet name="Raktár" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -816,30 +816,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,39 +886,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,19 +1225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1251,227 +1251,163 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="22">
-        <v>35</v>
-      </c>
-      <c r="L7" s="22">
-        <v>62</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="3"/>
-      <c r="J8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="22">
-        <v>35</v>
-      </c>
-      <c r="L8" s="22">
-        <v>62</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="22">
-        <v>10</v>
-      </c>
-      <c r="L9" s="22">
-        <v>14</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,14 +1601,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1689,6 +1617,14 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1699,13 +1635,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="43" customWidth="1"/>
+    <col min="1" max="1" width="18" style="25" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
@@ -1720,19 +1656,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1746,323 +1682,323 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="28">
         <v>4</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="28">
         <v>6</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="3"/>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="28">
         <v>4</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="28">
         <v>6</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="46" t="s">
+      <c r="P8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="28">
         <v>4</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="28">
         <v>6</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="28">
         <v>4</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="28">
         <v>6</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="46" t="s">
+      <c r="O10" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="46" t="s">
+      <c r="P10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="28">
         <v>4</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="28">
         <v>6</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="46" t="s">
+      <c r="Q11" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="28">
         <v>4</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="28">
         <v>6</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="O12" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="46" t="s">
+      <c r="P12" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="28">
         <v>16</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="28">
         <v>30</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2111,7 +2047,7 @@
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="15"/>
@@ -2120,7 +2056,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="15"/>
@@ -2220,7 +2156,7 @@
       <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -2228,17 +2164,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
@@ -2252,6 +2177,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2283,19 +2219,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2309,35 +2245,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -2367,10 +2303,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21" t="s">
         <v>44</v>
@@ -2398,10 +2334,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21" t="s">
         <v>50</v>
@@ -2429,10 +2365,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2462,74 +2398,74 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2723,17 +2659,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
@@ -2747,6 +2672,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D4CD7-DFA3-43D9-935F-8F797CE63D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85361624-161C-4EE9-88C5-9D0C8126223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -245,87 +245,15 @@
     <t>Laptop_P_2</t>
   </si>
   <si>
-    <t>Pozsony_A</t>
-  </si>
-  <si>
-    <t>Pozsony_B</t>
-  </si>
-  <si>
-    <t>Pozsony_C</t>
-  </si>
-  <si>
-    <t>Pozsony_D</t>
-  </si>
-  <si>
-    <t>Pozsony_E</t>
-  </si>
-  <si>
-    <t>Pozsony_F</t>
-  </si>
-  <si>
-    <t>Pozsony_G</t>
-  </si>
-  <si>
     <t>192.168.5.32</t>
   </si>
   <si>
-    <t>/29</t>
-  </si>
-  <si>
-    <t>255.255.255.248</t>
-  </si>
-  <si>
-    <t>192.168.5.33 - 192.168.5.38</t>
-  </si>
-  <si>
-    <t>192.168.5.39</t>
-  </si>
-  <si>
-    <t>192.168.5.40</t>
-  </si>
-  <si>
-    <t>192.168.5.41 - 192.168.5.46</t>
-  </si>
-  <si>
-    <t>192.168.5.47</t>
-  </si>
-  <si>
-    <t>192.168.5.48</t>
-  </si>
-  <si>
-    <t>192.168.5.49 - 192.168.5.54</t>
-  </si>
-  <si>
-    <t>192.168.5.55</t>
-  </si>
-  <si>
-    <t>192.168.5.56</t>
-  </si>
-  <si>
-    <t>192.168.5.57 - 192.168.5.62</t>
-  </si>
-  <si>
     <t>192.168.5.63</t>
   </si>
   <si>
     <t>192.168.5.64</t>
   </si>
   <si>
-    <t>192.168.5.65 - 192.168.5.70</t>
-  </si>
-  <si>
-    <t>192.168.5.71</t>
-  </si>
-  <si>
-    <t>192.168.5.72</t>
-  </si>
-  <si>
-    <t>192.168.5.73 - 192.168.5.78</t>
-  </si>
-  <si>
-    <t>192.168.5.79</t>
-  </si>
-  <si>
     <t>192.168.5.0</t>
   </si>
   <si>
@@ -339,6 +267,45 @@
   </si>
   <si>
     <t>192.168.5.31</t>
+  </si>
+  <si>
+    <t>192.168.5.33 - 192.168.5.62</t>
+  </si>
+  <si>
+    <t>192.168.5.65 - 192.168.5.94</t>
+  </si>
+  <si>
+    <t>192.168.5.95</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>192.168.5.96</t>
+  </si>
+  <si>
+    <t>192.168.5.97 - 192.168.5.126</t>
+  </si>
+  <si>
+    <t>192.168.5.127</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>192.168.5.128</t>
+  </si>
+  <si>
+    <t>192.168.5.129 - 192.168.5.158</t>
+  </si>
+  <si>
+    <t>192.168.5.159</t>
+  </si>
+  <si>
+    <t>Áruház</t>
+  </si>
+  <si>
+    <t>Raktár</t>
   </si>
 </sst>
 </file>
@@ -772,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -824,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1204,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1225,19 +1189,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1251,35 +1215,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1293,10 +1257,10 @@
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
@@ -1308,10 +1272,10 @@
       <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -1323,10 +1287,10 @@
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1340,74 +1304,74 @@
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,19 +1620,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1682,323 +1646,291 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="22">
+        <v>25</v>
+      </c>
+      <c r="L7" s="22">
+        <v>30</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="22">
+        <v>25</v>
+      </c>
+      <c r="L8" s="22">
+        <v>30</v>
+      </c>
+      <c r="M8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="28">
-        <v>4</v>
-      </c>
-      <c r="L7" s="28">
-        <v>6</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="28" t="s">
+      <c r="N8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="27" t="s">
+      <c r="Q8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="28">
-        <v>4</v>
-      </c>
-      <c r="L8" s="28">
-        <v>6</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="22">
+        <v>25</v>
+      </c>
+      <c r="L9" s="22">
+        <v>30</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="28">
-        <v>4</v>
-      </c>
-      <c r="L9" s="28">
-        <v>6</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="N9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>89</v>
+      <c r="Q9" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="J10" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="28">
-        <v>4</v>
-      </c>
-      <c r="L10" s="28">
-        <v>6</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>92</v>
+      <c r="J10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="22">
+        <v>25</v>
+      </c>
+      <c r="L10" s="22">
+        <v>30</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="22">
+        <v>25</v>
+      </c>
+      <c r="L11" s="22">
+        <v>30</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="28">
-        <v>4</v>
-      </c>
-      <c r="L11" s="28">
-        <v>6</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="O11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="28">
-        <v>4</v>
-      </c>
-      <c r="L12" s="28">
-        <v>6</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="J13" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="28">
-        <v>16</v>
-      </c>
-      <c r="L13" s="28">
-        <v>30</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,9 +2096,9 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2177,17 +2109,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2199,7 +2131,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,19 +2151,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2245,35 +2177,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -2303,10 +2235,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21" t="s">
         <v>44</v>
@@ -2334,10 +2266,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21" t="s">
         <v>50</v>
@@ -2365,10 +2297,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2398,74 +2330,74 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2659,9 +2591,9 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2672,17 +2604,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85361624-161C-4EE9-88C5-9D0C8126223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAE9F5-C0C4-45E6-A8D9-1A27E7E1E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -164,48 +164,21 @@
     <t>B</t>
   </si>
   <si>
-    <t>10.10.0.0</t>
-  </si>
-  <si>
     <t>/26</t>
   </si>
   <si>
     <t>255.255.255.192</t>
   </si>
   <si>
-    <t>10.10.0.1 - 10.10.0.62</t>
-  </si>
-  <si>
-    <t>10.10.0.63</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>10.10.0.64</t>
-  </si>
-  <si>
-    <t>10.10.0.65 - 10.10.0.126</t>
-  </si>
-  <si>
-    <t>10.10.0.127</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>10.10.0.128</t>
-  </si>
-  <si>
     <t>/28</t>
   </si>
   <si>
-    <t>10.10.0.129 - 10.10.0.142</t>
-  </si>
-  <si>
-    <t>10.10.0.143</t>
-  </si>
-  <si>
     <t>Router_P_1</t>
   </si>
   <si>
@@ -306,13 +279,154 @@
   </si>
   <si>
     <t>Raktár</t>
+  </si>
+  <si>
+    <t>192.168.0.0/24</t>
+  </si>
+  <si>
+    <t>Sopron_ASA0</t>
+  </si>
+  <si>
+    <t>Sopron_R1</t>
+  </si>
+  <si>
+    <t>Sopron_R2</t>
+  </si>
+  <si>
+    <t>Sopron_R3</t>
+  </si>
+  <si>
+    <t>Sopron_S0</t>
+  </si>
+  <si>
+    <t>Sopron_S1</t>
+  </si>
+  <si>
+    <t>Sopron_PC0</t>
+  </si>
+  <si>
+    <t>Sopron_PC1</t>
+  </si>
+  <si>
+    <t>Sopron_PC2</t>
+  </si>
+  <si>
+    <t>Sopron_PC3</t>
+  </si>
+  <si>
+    <t>Sopron_PC4</t>
+  </si>
+  <si>
+    <t>Sopron_PC5</t>
+  </si>
+  <si>
+    <t>Sopron_server1</t>
+  </si>
+  <si>
+    <t>Sopron_Access Point</t>
+  </si>
+  <si>
+    <t>Sopron_laptop1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sopron_laptop2</t>
+  </si>
+  <si>
+    <t>Sopron_A</t>
+  </si>
+  <si>
+    <t>Sopron_B</t>
+  </si>
+  <si>
+    <t>Sopron_C</t>
+  </si>
+  <si>
+    <t>Sopron_D</t>
+  </si>
+  <si>
+    <t>Sopron_E</t>
+  </si>
+  <si>
+    <t>Sopron_F</t>
+  </si>
+  <si>
+    <t>Sopron_G</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.65 - 192.168.0.78</t>
+  </si>
+  <si>
+    <t>192.168.0.79</t>
+  </si>
+  <si>
+    <t>192.168.0.80</t>
+  </si>
+  <si>
+    <t>192.168.0.81 - 192.168.0.94</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t>192.168.0.97 - 192.168.0.110</t>
+  </si>
+  <si>
+    <t>192.168.0.111</t>
+  </si>
+  <si>
+    <t>192.168.0.144</t>
+  </si>
+  <si>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>192.168.0.145 - 192.168.0.150</t>
+  </si>
+  <si>
+    <t>192.168.0.151</t>
+  </si>
+  <si>
+    <t>192.168.0.112</t>
+  </si>
+  <si>
+    <t>192.168.0.113 - 192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.129 - 192.168.0.142</t>
+  </si>
+  <si>
+    <t>192.168.0.143</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>192.168.0.1 - 192.168.0.62</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +487,22 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -739,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,45 +928,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,6 +965,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1189,19 +1380,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1215,35 +1406,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1257,10 +1448,10 @@
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
@@ -1272,10 +1463,10 @@
       <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -1287,10 +1478,10 @@
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1304,74 +1495,74 @@
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,6 +1756,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1581,14 +1780,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1599,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1620,19 +1811,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1646,35 +1837,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="35"/>
+      <c r="A4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="32"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1704,13 +1895,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K7" s="22">
         <v>25</v>
@@ -1719,26 +1910,26 @@
         <v>30</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21" t="s">
         <v>44</v>
@@ -1750,31 +1941,31 @@
         <v>30</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="35"/>
+      <c r="A9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="32"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="J9" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9" s="22">
         <v>25</v>
@@ -1783,29 +1974,29 @@
         <v>30</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="J10" s="21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K10" s="22">
         <v>25</v>
@@ -1814,31 +2005,31 @@
         <v>30</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="Q10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="35"/>
+      <c r="A11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="32"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="J11" s="21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K11" s="22">
         <v>25</v>
@@ -1847,26 +2038,26 @@
         <v>30</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="3"/>
       <c r="J12" s="26"/>
       <c r="K12" s="27"/>
@@ -1878,10 +2069,10 @@
       <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="35"/>
+      <c r="A13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1895,47 +2086,47 @@
       <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="35"/>
+      <c r="A15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="32"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="35"/>
+      <c r="A17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="32"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -1944,7 +2135,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="5"/>
@@ -1953,7 +2144,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5"/>
@@ -1962,7 +2153,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="5"/>
@@ -1971,7 +2162,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="5"/>
@@ -1980,7 +2171,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="5"/>
@@ -1989,7 +2180,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="5"/>
@@ -2096,6 +2287,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2109,17 +2311,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2128,15 +2319,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P13:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
@@ -2151,471 +2342,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="57"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="57"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+    </row>
+    <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="57"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+    </row>
+    <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="57"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="57"/>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+    </row>
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="57"/>
+    </row>
+    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="57"/>
+      <c r="J12" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="58"/>
+      <c r="J13" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="66">
+        <v>8</v>
+      </c>
+      <c r="L13" s="66">
+        <v>14</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="57"/>
+      <c r="J14" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="66">
+        <v>8</v>
+      </c>
+      <c r="L14" s="66">
+        <v>14</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="58"/>
+      <c r="J15" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="66">
+        <v>8</v>
+      </c>
+      <c r="L15" s="66">
+        <v>14</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="16"/>
+      <c r="J16" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="66">
+        <v>4</v>
+      </c>
+      <c r="L16" s="66">
+        <v>6</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="16"/>
+      <c r="J17" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="66">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="J6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="22">
-        <v>35</v>
-      </c>
-      <c r="L7" s="22">
+      <c r="L17" s="66">
+        <v>14</v>
+      </c>
+      <c r="M17" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="16"/>
+      <c r="J18" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="66">
+        <v>8</v>
+      </c>
+      <c r="L18" s="66">
+        <v>14</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="16"/>
+      <c r="J19" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="66">
+        <v>48</v>
+      </c>
+      <c r="L19" s="66">
         <v>62</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M19" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="O19" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="22">
-        <v>35</v>
-      </c>
-      <c r="L8" s="22">
-        <v>62</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="J9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="22">
-        <v>10</v>
-      </c>
-      <c r="L9" s="22">
-        <v>14</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="15"/>
+      <c r="P19" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="15"/>
+    <row r="21" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="15"/>
+    <row r="22" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="21">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAE9F5-C0C4-45E6-A8D9-1A27E7E1E9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20392551-3F82-4047-9B73-A0BF328AF23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Áruház" sheetId="3" r:id="rId2"/>
     <sheet name="Raktár" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Raktár!$J$12:$Q$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -350,36 +353,9 @@
     <t>Sopron_F</t>
   </si>
   <si>
-    <t>Sopron_G</t>
-  </si>
-  <si>
     <t>192.168.0.64</t>
   </si>
   <si>
-    <t>192.168.0.65 - 192.168.0.78</t>
-  </si>
-  <si>
-    <t>192.168.0.79</t>
-  </si>
-  <si>
-    <t>192.168.0.80</t>
-  </si>
-  <si>
-    <t>192.168.0.81 - 192.168.0.94</t>
-  </si>
-  <si>
-    <t>192.168.0.95</t>
-  </si>
-  <si>
-    <t>192.168.0.96</t>
-  </si>
-  <si>
-    <t>192.168.0.97 - 192.168.0.110</t>
-  </si>
-  <si>
-    <t>192.168.0.111</t>
-  </si>
-  <si>
     <t>192.168.0.144</t>
   </si>
   <si>
@@ -389,18 +365,6 @@
     <t>255.255.255.248</t>
   </si>
   <si>
-    <t>192.168.0.145 - 192.168.0.150</t>
-  </si>
-  <si>
-    <t>192.168.0.151</t>
-  </si>
-  <si>
-    <t>192.168.0.112</t>
-  </si>
-  <si>
-    <t>192.168.0.113 - 192.168.0.126</t>
-  </si>
-  <si>
     <t>192.168.0.127</t>
   </si>
   <si>
@@ -420,6 +384,33 @@
   </si>
   <si>
     <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.65 - 192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.145 - 192.168.0.158</t>
+  </si>
+  <si>
+    <t>192.168.0.159</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.161 - 192.168.0.174</t>
+  </si>
+  <si>
+    <t>192.168.0.175</t>
+  </si>
+  <si>
+    <t>192.168.0.176</t>
+  </si>
+  <si>
+    <t>192.168.0.177 - 192.168.0.182</t>
+  </si>
+  <si>
+    <t>192.168.0.183</t>
   </si>
 </sst>
 </file>
@@ -928,30 +919,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,80 +1016,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,19 +1371,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1406,35 +1397,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1448,10 +1439,10 @@
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
@@ -1463,10 +1454,10 @@
       <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -1478,10 +1469,10 @@
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1495,74 +1486,74 @@
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,14 +1747,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1780,6 +1763,14 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1811,19 +1802,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1837,35 +1828,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1895,10 +1886,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21" t="s">
         <v>48</v>
@@ -1926,10 +1917,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21" t="s">
         <v>44</v>
@@ -1957,10 +1948,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1990,8 +1981,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2021,10 +2012,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2054,10 +2045,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="3"/>
       <c r="J12" s="26"/>
       <c r="K12" s="27"/>
@@ -2069,10 +2060,10 @@
       <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2086,42 +2077,42 @@
       <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,17 +2278,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2311,6 +2291,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2322,7 +2313,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P13:P19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,402 +2333,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="57"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="57"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="33"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="57"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="57"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="33"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="33"/>
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="57"/>
-      <c r="J12" s="64" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="J12" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="64" t="s">
+      <c r="O12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="P12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="64" t="s">
+      <c r="Q12" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="58"/>
-      <c r="J13" s="65" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="34"/>
+      <c r="J13" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="42">
         <v>8</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="42">
         <v>14</v>
       </c>
-      <c r="M13" s="66" t="s">
+      <c r="M13" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="J14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="42">
+        <v>8</v>
+      </c>
+      <c r="L14" s="42">
+        <v>14</v>
+      </c>
+      <c r="M14" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="66" t="s">
+      <c r="N14" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="66" t="s">
+      <c r="O14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" s="66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="57"/>
-      <c r="J14" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="66">
+      <c r="P14" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="34"/>
+      <c r="J15" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="42">
         <v>8</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L15" s="42">
         <v>14</v>
       </c>
-      <c r="M14" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="66" t="s">
+      <c r="M15" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="O15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q14" s="66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="58"/>
-      <c r="J15" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="66">
-        <v>8</v>
-      </c>
-      <c r="L15" s="66">
-        <v>14</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q15" s="66" t="s">
-        <v>116</v>
+      <c r="P15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="16"/>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="42">
         <v>4</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="42">
         <v>6</v>
       </c>
-      <c r="M16" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q16" s="66" t="s">
-        <v>121</v>
+      <c r="M16" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="16"/>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="66">
-        <v>8</v>
-      </c>
-      <c r="L17" s="66">
-        <v>14</v>
-      </c>
-      <c r="M17" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="66" t="s">
-        <v>124</v>
+      <c r="K17" s="42">
+        <v>48</v>
+      </c>
+      <c r="L17" s="42">
+        <v>62</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="16"/>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="66">
-        <v>8</v>
-      </c>
-      <c r="L18" s="66">
-        <v>14</v>
-      </c>
-      <c r="M18" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>127</v>
+      <c r="K18" s="42">
+        <v>48</v>
+      </c>
+      <c r="L18" s="42">
+        <v>62</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="35" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="16"/>
-      <c r="J19" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="66">
-        <v>48</v>
-      </c>
-      <c r="L19" s="66">
-        <v>62</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" s="66" t="s">
-        <v>130</v>
-      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="35" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="5"/>
@@ -2746,7 +2721,7 @@
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="5"/>
@@ -2755,7 +2730,7 @@
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="5"/>
@@ -2764,7 +2739,7 @@
       <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="35" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="5"/>
@@ -2773,7 +2748,7 @@
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="35" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="5"/>
@@ -2782,7 +2757,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B25" s="18"/>
@@ -2792,6 +2767,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -2800,19 +2788,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vizsgaremek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C760BE-6325-42DB-A233-E710C50C394D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E7DF1-F6D9-461C-B9DB-CD81B670BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="14850" yWindow="195" windowWidth="13890" windowHeight="14130" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -164,48 +164,21 @@
     <t>B</t>
   </si>
   <si>
-    <t>10.10.0.0</t>
-  </si>
-  <si>
     <t>/26</t>
   </si>
   <si>
     <t>255.255.255.192</t>
   </si>
   <si>
-    <t>10.10.0.1 - 10.10.0.62</t>
-  </si>
-  <si>
-    <t>10.10.0.63</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>10.10.0.64</t>
-  </si>
-  <si>
-    <t>10.10.0.65 - 10.10.0.126</t>
-  </si>
-  <si>
-    <t>10.10.0.127</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>10.10.0.128</t>
-  </si>
-  <si>
     <t>/28</t>
   </si>
   <si>
-    <t>10.10.0.129 - 10.10.0.142</t>
-  </si>
-  <si>
-    <t>10.10.0.143</t>
-  </si>
-  <si>
     <t>Router_P_1</t>
   </si>
   <si>
@@ -245,27 +218,6 @@
     <t>Laptop_P_2</t>
   </si>
   <si>
-    <t>Pozsony_A</t>
-  </si>
-  <si>
-    <t>Pozsony_B</t>
-  </si>
-  <si>
-    <t>Pozsony_C</t>
-  </si>
-  <si>
-    <t>Pozsony_D</t>
-  </si>
-  <si>
-    <t>Pozsony_E</t>
-  </si>
-  <si>
-    <t>Pozsony_F</t>
-  </si>
-  <si>
-    <t>Pozsony_G</t>
-  </si>
-  <si>
     <t>192.168.5.32</t>
   </si>
   <si>
@@ -275,55 +227,10 @@
     <t>255.255.255.248</t>
   </si>
   <si>
-    <t>192.168.5.33 - 192.168.5.38</t>
-  </si>
-  <si>
-    <t>192.168.5.39</t>
-  </si>
-  <si>
-    <t>192.168.5.40</t>
-  </si>
-  <si>
-    <t>192.168.5.41 - 192.168.5.46</t>
-  </si>
-  <si>
-    <t>192.168.5.47</t>
-  </si>
-  <si>
-    <t>192.168.5.48</t>
-  </si>
-  <si>
-    <t>192.168.5.49 - 192.168.5.54</t>
-  </si>
-  <si>
-    <t>192.168.5.55</t>
-  </si>
-  <si>
-    <t>192.168.5.56</t>
-  </si>
-  <si>
-    <t>192.168.5.57 - 192.168.5.62</t>
-  </si>
-  <si>
     <t>192.168.5.63</t>
   </si>
   <si>
     <t>192.168.5.64</t>
-  </si>
-  <si>
-    <t>192.168.5.65 - 192.168.5.70</t>
-  </si>
-  <si>
-    <t>192.168.5.71</t>
-  </si>
-  <si>
-    <t>192.168.5.72</t>
-  </si>
-  <si>
-    <t>192.168.5.73 - 192.168.5.78</t>
-  </si>
-  <si>
-    <t>192.168.5.79</t>
   </si>
   <si>
     <t>192.168.5.0</t>
@@ -414,13 +321,121 @@
   </si>
   <si>
     <t>VLAN</t>
+  </si>
+  <si>
+    <t>192.168.5.33 - 192.168.5.62</t>
+  </si>
+  <si>
+    <t>192.168.5.65 - 192.168.5.94</t>
+  </si>
+  <si>
+    <t>192.168.5.95</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>192.168.5.96</t>
+  </si>
+  <si>
+    <t>192.168.5.97 - 192.168.5.126</t>
+  </si>
+  <si>
+    <t>192.168.5.127</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>192.168.5.128</t>
+  </si>
+  <si>
+    <t>192.168.5.129 - 192.168.5.158</t>
+  </si>
+  <si>
+    <t>192.168.5.159</t>
+  </si>
+  <si>
+    <t>192.168.0.0/24</t>
+  </si>
+  <si>
+    <t>Sopron_A</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.129 - 192.168.0.142</t>
+  </si>
+  <si>
+    <t>192.168.0.143</t>
+  </si>
+  <si>
+    <t>Sopron_B</t>
+  </si>
+  <si>
+    <t>192.168.0.144</t>
+  </si>
+  <si>
+    <t>192.168.0.145 - 192.168.0.158</t>
+  </si>
+  <si>
+    <t>192.168.0.159</t>
+  </si>
+  <si>
+    <t>Sopron_C</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.161 - 192.168.0.174</t>
+  </si>
+  <si>
+    <t>192.168.0.175</t>
+  </si>
+  <si>
+    <t>Sopron_D</t>
+  </si>
+  <si>
+    <t>192.168.0.176</t>
+  </si>
+  <si>
+    <t>192.168.0.177 - 192.168.0.182</t>
+  </si>
+  <si>
+    <t>192.168.0.183</t>
+  </si>
+  <si>
+    <t>Sopron_E</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>192.168.0.1 - 192.168.0.62</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>Sopron_F</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.65 - 192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +513,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -889,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -957,30 +981,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,28 +1041,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1359,19 +1389,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1385,30 +1415,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="3"/>
       <c r="J5" s="26" t="s">
         <v>36</v>
@@ -1434,18 +1464,18 @@
       <c r="Q5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="50" t="s">
-        <v>126</v>
+      <c r="R5" s="32" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="J6" s="29" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="K6" s="29">
         <v>7</v>
@@ -1454,32 +1484,32 @@
         <v>30</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" s="51" t="s">
-        <v>122</v>
+        <v>80</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
       <c r="J7" s="29" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="K7" s="29">
         <v>5</v>
@@ -1488,32 +1518,32 @@
         <v>30</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="R7" s="51" t="s">
-        <v>123</v>
+        <v>83</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="3"/>
       <c r="J8" s="29" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="K8" s="29">
         <v>1</v>
@@ -1522,34 +1552,34 @@
         <v>6</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>124</v>
+        <v>86</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="J9" s="29" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K9" s="29">
         <v>1</v>
@@ -1558,93 +1588,93 @@
         <v>6</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q9" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="51" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,14 +1868,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1862,6 +1884,14 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1872,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,19 +1923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1919,328 +1949,296 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="35"/>
+      <c r="A4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="40"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="22">
+        <v>25</v>
+      </c>
+      <c r="L7" s="22">
+        <v>30</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="28">
-        <v>4</v>
-      </c>
-      <c r="L7" s="28">
-        <v>6</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="3"/>
-      <c r="J8" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="28">
-        <v>4</v>
-      </c>
-      <c r="L8" s="28">
-        <v>6</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>86</v>
+      <c r="J8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="22">
+        <v>25</v>
+      </c>
+      <c r="L8" s="22">
+        <v>30</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="35"/>
+      <c r="A9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="40"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="28">
-        <v>4</v>
-      </c>
-      <c r="L9" s="28">
-        <v>6</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>89</v>
+      <c r="J9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="22">
+        <v>25</v>
+      </c>
+      <c r="L9" s="22">
+        <v>30</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="J10" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="28">
-        <v>4</v>
-      </c>
-      <c r="L10" s="28">
-        <v>6</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>92</v>
+      <c r="J10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="22">
+        <v>25</v>
+      </c>
+      <c r="L10" s="22">
+        <v>30</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="35"/>
+      <c r="A11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="40"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="J11" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="28">
-        <v>4</v>
-      </c>
-      <c r="L11" s="28">
-        <v>6</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="J11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="22">
+        <v>25</v>
+      </c>
+      <c r="L11" s="22">
+        <v>30</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="28">
-        <v>4</v>
-      </c>
-      <c r="L12" s="28">
-        <v>6</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="35"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="40"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="J13" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="28">
-        <v>16</v>
-      </c>
-      <c r="L13" s="28">
-        <v>30</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="35"/>
+      <c r="A15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="40"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="35"/>
+      <c r="A17" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="40"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -2249,7 +2247,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="5"/>
@@ -2258,7 +2256,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5"/>
@@ -2267,7 +2265,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="5"/>
@@ -2276,7 +2274,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="5"/>
@@ -2285,7 +2283,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="5"/>
@@ -2294,7 +2292,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="5"/>
@@ -2401,17 +2399,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2425,6 +2412,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2435,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:Q6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,19 +2454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2482,227 +2480,317 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+    </row>
+    <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q8" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="22">
-        <v>35</v>
-      </c>
-      <c r="L7" s="22">
-        <v>62</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="22">
-        <v>35</v>
-      </c>
-      <c r="L8" s="22">
-        <v>62</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="22">
-        <v>10</v>
-      </c>
-      <c r="L9" s="22">
+      <c r="J9" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="53">
+        <v>8</v>
+      </c>
+      <c r="L9" s="53">
         <v>14</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="22" t="s">
+      <c r="M9" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>58</v>
+      <c r="P9" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="53" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="J10" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="53">
+        <v>8</v>
+      </c>
+      <c r="L10" s="53">
+        <v>14</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="J11" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="53">
+        <v>8</v>
+      </c>
+      <c r="L11" s="53">
+        <v>14</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="3"/>
+      <c r="J12" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="53">
+        <v>4</v>
+      </c>
+      <c r="L12" s="53">
+        <v>6</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="J13" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="53">
+        <v>48</v>
+      </c>
+      <c r="L13" s="53">
+        <v>62</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="3"/>
+      <c r="J14" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="53">
+        <v>48</v>
+      </c>
+      <c r="L14" s="53">
+        <v>62</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,17 +2984,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2920,6 +2997,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E7DF1-F6D9-461C-B9DB-CD81B670BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F2B3A-560E-43B9-9BCB-7CE3D6DFFD56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14850" yWindow="195" windowWidth="13890" windowHeight="14130" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="14850" yWindow="195" windowWidth="13890" windowHeight="14130" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -987,6 +987,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,55 +1047,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,19 +1389,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1415,18 +1415,18 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="40"/>
@@ -1435,7 +1435,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="40"/>
@@ -1614,7 +1614,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="40"/>
@@ -1630,7 +1630,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="40"/>
@@ -1646,7 +1646,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="40"/>
@@ -1662,7 +1662,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="40"/>
@@ -1672,9 +1672,9 @@
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,6 +1868,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1884,14 +1892,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1902,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1923,19 +1923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1949,18 +1949,18 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="40"/>
@@ -1969,14 +1969,14 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -2069,7 +2069,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="40"/>
@@ -2133,7 +2133,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="40"/>
@@ -2181,7 +2181,7 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="40"/>
@@ -2205,7 +2205,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="40"/>
@@ -2221,7 +2221,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="40"/>
@@ -2231,9 +2231,9 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,6 +2399,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2412,17 +2423,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2433,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:Q15"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,6 +2447,7 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
@@ -2454,19 +2455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2480,18 +2481,18 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="40"/>
@@ -2500,14 +2501,14 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="D5" s="43"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="40"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2515,16 +2516,16 @@
       <c r="J6" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -2562,35 +2563,35 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="35">
         <v>8</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="35">
         <v>14</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="35" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2600,61 +2601,61 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="35">
         <v>8</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="35">
         <v>14</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="35">
         <v>8</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="35">
         <v>14</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="53" t="s">
+      <c r="N11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="O11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="35" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2664,61 +2665,61 @@
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="35">
         <v>4</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="35">
         <v>6</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="N12" s="53" t="s">
+      <c r="N12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="53" t="s">
+      <c r="Q12" s="35" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="35">
         <v>48</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="35">
         <v>62</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2728,47 +2729,47 @@
       <c r="C14" s="42"/>
       <c r="D14" s="43"/>
       <c r="E14" s="3"/>
-      <c r="J14" s="52" t="s">
+      <c r="J14" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="35">
         <v>48</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="35">
         <v>62</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="53" t="s">
+      <c r="O14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="53" t="s">
+      <c r="Q14" s="35" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
@@ -2778,7 +2779,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="40"/>
@@ -2788,9 +2789,9 @@
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,6 +2985,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2997,17 +3009,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F2B3A-560E-43B9-9BCB-7CE3D6DFFD56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DDF30-2D6A-41BA-9AF3-2AC518D50538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14850" yWindow="195" windowWidth="13890" windowHeight="14130" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -161,21 +161,12 @@
     <t>Broadcast</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>/26</t>
   </si>
   <si>
     <t>255.255.255.192</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>/28</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>Laptop_P_2</t>
   </si>
   <si>
-    <t>192.168.5.32</t>
-  </si>
-  <si>
     <t>/29</t>
   </si>
   <si>
@@ -240,12 +228,6 @@
   </si>
   <si>
     <t>255.255.255.224</t>
-  </si>
-  <si>
-    <t>192.168.5.1 - 192.168.5.30</t>
-  </si>
-  <si>
-    <t>192.168.5.31</t>
   </si>
   <si>
     <t>Gyor_A</t>
@@ -323,30 +305,9 @@
     <t>VLAN</t>
   </si>
   <si>
-    <t>192.168.5.33 - 192.168.5.62</t>
-  </si>
-  <si>
-    <t>192.168.5.65 - 192.168.5.94</t>
-  </si>
-  <si>
-    <t>192.168.5.95</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>192.168.5.96</t>
-  </si>
-  <si>
-    <t>192.168.5.97 - 192.168.5.126</t>
-  </si>
-  <si>
     <t>192.168.5.127</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>192.168.5.128</t>
   </si>
   <si>
@@ -429,6 +390,60 @@
   </si>
   <si>
     <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>Pozsony_E</t>
+  </si>
+  <si>
+    <t>192.168.5.1 - 192.168.5.62</t>
+  </si>
+  <si>
+    <t>Pozsony_F</t>
+  </si>
+  <si>
+    <t>192.168.5.65 - 192.168.5.126</t>
+  </si>
+  <si>
+    <t>Pozsony_A</t>
+  </si>
+  <si>
+    <t>Pozsony_B</t>
+  </si>
+  <si>
+    <t>192.168.5.160</t>
+  </si>
+  <si>
+    <t>192.168.5.161 - 192.168.5.190</t>
+  </si>
+  <si>
+    <t>192.168.5.191</t>
+  </si>
+  <si>
+    <t>Pozsony_C</t>
+  </si>
+  <si>
+    <t>192.168.5.192</t>
+  </si>
+  <si>
+    <t>192.168.5.193 - 192.168.5.222</t>
+  </si>
+  <si>
+    <t>192.168.5.223</t>
+  </si>
+  <si>
+    <t>Pozsony_D</t>
+  </si>
+  <si>
+    <t>192.168.5.224</t>
+  </si>
+  <si>
+    <t>192.168.5.225 - 192.168.5.254</t>
+  </si>
+  <si>
+    <t>192.168.5.255</t>
+  </si>
+  <si>
+    <t>Pozsony - Áruház</t>
   </si>
 </sst>
 </file>
@@ -913,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -969,12 +984,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,30 +1005,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,21 +1057,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -1389,19 +1398,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1415,12 +1424,12 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1429,16 +1438,16 @@
       <c r="A4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3"/>
       <c r="J5" s="26" t="s">
         <v>36</v>
@@ -1464,151 +1473,151 @@
       <c r="Q5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="32" t="s">
-        <v>95</v>
+      <c r="R5" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="27">
+        <v>7</v>
+      </c>
+      <c r="L6" s="27">
+        <v>30</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="29">
-        <v>7</v>
-      </c>
-      <c r="L6" s="29">
+      <c r="N6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="3"/>
+      <c r="J7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="27">
+        <v>5</v>
+      </c>
+      <c r="L7" s="27">
         <v>30</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1</v>
+      </c>
+      <c r="L8" s="27">
+        <v>6</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="N8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="29">
-        <v>5</v>
-      </c>
-      <c r="L7" s="29">
-        <v>30</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="29">
-        <v>1</v>
-      </c>
-      <c r="L8" s="29">
-        <v>6</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="31" t="s">
+      <c r="R8" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="J9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="27">
         <v>1</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <v>6</v>
       </c>
       <c r="M9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1617,64 +1626,64 @@
       <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,14 +1877,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1892,529 +1893,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:Q39"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="25" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="J6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="22">
-        <v>25</v>
-      </c>
-      <c r="L7" s="22">
-        <v>30</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="22">
-        <v>25</v>
-      </c>
-      <c r="L8" s="22">
-        <v>30</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="J9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="22">
-        <v>25</v>
-      </c>
-      <c r="L9" s="22">
-        <v>30</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="J10" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="22">
-        <v>25</v>
-      </c>
-      <c r="L10" s="22">
-        <v>30</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="J11" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="22">
-        <v>25</v>
-      </c>
-      <c r="L11" s="22">
-        <v>30</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="3"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:A8"/>
@@ -2429,11 +1907,551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="25" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="J9" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="22">
+        <v>15</v>
+      </c>
+      <c r="L9" s="22">
+        <v>30</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="J10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="22">
+        <v>15</v>
+      </c>
+      <c r="L10" s="22">
+        <v>30</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="J11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="22">
+        <v>15</v>
+      </c>
+      <c r="L11" s="22">
+        <v>30</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="3"/>
+      <c r="J12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="22">
+        <v>15</v>
+      </c>
+      <c r="L12" s="22">
+        <v>30</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="J13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="22">
+        <v>40</v>
+      </c>
+      <c r="L13" s="22">
+        <v>62</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="3"/>
+      <c r="J14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="22">
+        <v>40</v>
+      </c>
+      <c r="L14" s="22">
+        <v>62</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -2455,19 +2473,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2481,12 +2499,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2495,47 +2513,47 @@
       <c r="A4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="J6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+        <v>94</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="3"/>
       <c r="J8" s="26" t="s">
         <v>36</v>
@@ -2566,232 +2584,232 @@
       <c r="A9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="35">
+      <c r="J9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="33">
         <v>8</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="33">
         <v>14</v>
       </c>
-      <c r="M9" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="35" t="s">
+      <c r="M9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>111</v>
+      <c r="P9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="J10" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="35">
+      <c r="J10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="33">
         <v>8</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="33">
         <v>14</v>
       </c>
-      <c r="M10" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="35" t="s">
+      <c r="M10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>115</v>
+      <c r="P10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="J11" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="J11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="33">
         <v>8</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="33">
         <v>14</v>
       </c>
-      <c r="M11" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="35" t="s">
+      <c r="M11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>119</v>
+      <c r="P11" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="35">
+      <c r="J12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="33">
         <v>4</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="33">
         <v>6</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>123</v>
+      <c r="M12" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="J13" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="J13" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="33">
         <v>48</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="33">
         <v>62</v>
       </c>
-      <c r="M13" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" s="35" t="s">
+      <c r="M13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>127</v>
+      <c r="P13" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="3"/>
-      <c r="J14" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="35">
+      <c r="J14" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="33">
         <v>48</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="33">
         <v>62</v>
       </c>
-      <c r="M14" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="35" t="s">
+      <c r="M14" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>131</v>
+      <c r="P14" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,17 +3003,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -3009,6 +3016,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DDF30-2D6A-41BA-9AF3-2AC518D50538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FFD1C-26BD-4859-B8A3-2B7AD206F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="14355" yWindow="120" windowWidth="15300" windowHeight="14130" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="175">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -444,13 +444,127 @@
   </si>
   <si>
     <t>Pozsony - Áruház</t>
+  </si>
+  <si>
+    <t>SOPRON - Raktár</t>
+  </si>
+  <si>
+    <t>Sopron_R1</t>
+  </si>
+  <si>
+    <t>Sopron_R2</t>
+  </si>
+  <si>
+    <t>Sopron_R3</t>
+  </si>
+  <si>
+    <t>Sopron_ASA0</t>
+  </si>
+  <si>
+    <t>Sopron_S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sopron_S2</t>
+  </si>
+  <si>
+    <t>Sopron_Access Point</t>
+  </si>
+  <si>
+    <t>Sopron_server1</t>
+  </si>
+  <si>
+    <t>Sopron_PC6</t>
+  </si>
+  <si>
+    <t>Sopron_PC1</t>
+  </si>
+  <si>
+    <t>Sopron_PC2</t>
+  </si>
+  <si>
+    <t>Sopron_PC3</t>
+  </si>
+  <si>
+    <t>Sopron_PC4</t>
+  </si>
+  <si>
+    <t>Sopron_PC5</t>
+  </si>
+  <si>
+    <t>Sopron_laptop1</t>
+  </si>
+  <si>
+    <t>Sopron_laptop2</t>
+  </si>
+  <si>
+    <t>Se0/1/0</t>
+  </si>
+  <si>
+    <t>Se0/1/1</t>
+  </si>
+  <si>
+    <t>G0/0</t>
+  </si>
+  <si>
+    <t>G1/2</t>
+  </si>
+  <si>
+    <t>G1/1</t>
+  </si>
+  <si>
+    <t>G1/3</t>
+  </si>
+  <si>
+    <t>G0/1</t>
+  </si>
+  <si>
+    <t>Fa0/0/0</t>
+  </si>
+  <si>
+    <t>Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa0/2</t>
+  </si>
+  <si>
+    <t>Fa0/3</t>
+  </si>
+  <si>
+    <t>Fa0/4</t>
+  </si>
+  <si>
+    <t>Fa0/5</t>
+  </si>
+  <si>
+    <t>Fa0/6</t>
+  </si>
+  <si>
+    <t>Fa0/7</t>
+  </si>
+  <si>
+    <t>Port0</t>
+  </si>
+  <si>
+    <t>Fa0</t>
+  </si>
+  <si>
+    <t>Sopron_Vlan22</t>
+  </si>
+  <si>
+    <t>Sopron_Vlan21</t>
+  </si>
+  <si>
+    <t>Felügyeleti vlan 29</t>
+  </si>
+  <si>
+    <t>IPv6Default Gateway</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +651,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -546,7 +667,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -924,11 +1045,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1005,45 +1189,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,6 +1227,92 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,19 +1653,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1424,30 +1679,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="3"/>
       <c r="J5" s="26" t="s">
         <v>36</v>
@@ -1478,8 +1733,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1512,10 +1767,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="3"/>
       <c r="J7" s="27" t="s">
         <v>68</v>
@@ -1546,10 +1801,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="3"/>
       <c r="J8" s="27" t="s">
         <v>69</v>
@@ -1580,10 +1835,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1616,74 +1871,74 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,6 +2132,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1893,14 +2156,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1911,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1933,19 +2188,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1959,51 +2214,51 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="3"/>
       <c r="J8" s="20" t="s">
         <v>36</v>
@@ -2031,10 +2286,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2064,8 +2319,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2095,10 +2350,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2128,10 +2383,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="3"/>
       <c r="J12" s="21" t="s">
         <v>132</v>
@@ -2159,10 +2414,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2192,10 +2447,10 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="3"/>
       <c r="J14" s="21" t="s">
         <v>119</v>
@@ -2223,35 +2478,35 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,6 +2672,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2430,17 +2696,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2449,585 +2704,901 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="G2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="1" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="N3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="N4" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="33">
+        <v>8</v>
+      </c>
+      <c r="P4" s="33">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="N5" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="33">
+        <v>8</v>
+      </c>
+      <c r="P5" s="33">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="N6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="33">
+        <v>8</v>
+      </c>
+      <c r="P6" s="33">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="N7" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="33">
+        <v>4</v>
+      </c>
+      <c r="P7" s="33">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="J9" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="33">
-        <v>8</v>
-      </c>
-      <c r="L9" s="33">
-        <v>14</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="J10" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="33">
-        <v>8</v>
-      </c>
-      <c r="L10" s="33">
-        <v>14</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="J11" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="33">
-        <v>8</v>
-      </c>
-      <c r="L11" s="33">
-        <v>14</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="3"/>
-      <c r="J12" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="33">
-        <v>4</v>
-      </c>
-      <c r="L12" s="33">
-        <v>6</v>
-      </c>
-      <c r="M12" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="R7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="S7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="T7" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="J13" s="32" t="s">
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="N8" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="33">
+      <c r="O8" s="68">
         <v>48</v>
       </c>
-      <c r="L13" s="33">
+      <c r="P8" s="68">
         <v>62</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="Q8" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="R8" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="S8" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="T8" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="U8" s="68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="3"/>
-      <c r="J14" s="32" t="s">
+    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="33">
+      <c r="O9" s="73">
         <v>48</v>
       </c>
-      <c r="L14" s="33">
+      <c r="P9" s="73">
         <v>62</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="Q9" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="R9" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="S9" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="T9" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="U9" s="73" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="5"/>
+    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+    </row>
+    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
+    </row>
+    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="52" t="s">
+        <v>160</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+    </row>
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="52" t="s">
+        <v>164</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+    </row>
+    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="52" t="s">
+        <v>165</v>
+      </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+    </row>
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="52" t="s">
+        <v>166</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+    </row>
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="52" t="s">
+        <v>167</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="52" t="s">
+        <v>168</v>
+      </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+    </row>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+    </row>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+    </row>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+    </row>
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>170</v>
+      </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="15"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+    </row>
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="15"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76"/>
+    </row>
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="83">
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FFD1C-26BD-4859-B8A3-2B7AD206F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072A80A-0558-412D-874A-D852904CAEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="120" windowWidth="15300" windowHeight="14130" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="16110" yWindow="0" windowWidth="14775" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -168,45 +168,6 @@
   </si>
   <si>
     <t>/28</t>
-  </si>
-  <si>
-    <t>Router_P_1</t>
-  </si>
-  <si>
-    <t>Router_P_2</t>
-  </si>
-  <si>
-    <t>Router_P_3</t>
-  </si>
-  <si>
-    <t>Switch1_P_2</t>
-  </si>
-  <si>
-    <t>Switch1_P_1</t>
-  </si>
-  <si>
-    <t>PC_P_1</t>
-  </si>
-  <si>
-    <t>PC_P_2</t>
-  </si>
-  <si>
-    <t>PC_P_4</t>
-  </si>
-  <si>
-    <t>PC_P_3</t>
-  </si>
-  <si>
-    <t>Router_P_4</t>
-  </si>
-  <si>
-    <t>ASA_P</t>
-  </si>
-  <si>
-    <t>Laptop_P_1</t>
-  </si>
-  <si>
-    <t>Laptop_P_2</t>
   </si>
   <si>
     <t>/29</t>
@@ -558,6 +519,111 @@
   </si>
   <si>
     <t>IPv6Default Gateway</t>
+  </si>
+  <si>
+    <t>Pozsony_R1</t>
+  </si>
+  <si>
+    <t>Pozsony_ASA</t>
+  </si>
+  <si>
+    <t>Pozsony_R3</t>
+  </si>
+  <si>
+    <t>Pozsony_R2</t>
+  </si>
+  <si>
+    <t>Pozsony_S1</t>
+  </si>
+  <si>
+    <t>G0/2</t>
+  </si>
+  <si>
+    <t>G0/6</t>
+  </si>
+  <si>
+    <t>Pozsony_S2</t>
+  </si>
+  <si>
+    <t>Port1</t>
+  </si>
+  <si>
+    <t>Pozsony_Server1</t>
+  </si>
+  <si>
+    <t>Pozsony_AP1 (Access Point)</t>
+  </si>
+  <si>
+    <t>Pozsony_PC1</t>
+  </si>
+  <si>
+    <t>Pozsony_PC2</t>
+  </si>
+  <si>
+    <t>Pozsony_PC3</t>
+  </si>
+  <si>
+    <t>Pozsony_PC4</t>
+  </si>
+  <si>
+    <t>Pozsony_PC5</t>
+  </si>
+  <si>
+    <t>Pozsony_PC6</t>
+  </si>
+  <si>
+    <t>Pozsony_VLAN_11</t>
+  </si>
+  <si>
+    <t>Pozsony_VLAN_12</t>
+  </si>
+  <si>
+    <t>Pozsony_VLAN_13</t>
+  </si>
+  <si>
+    <t>Pozsony_Laptop2</t>
+  </si>
+  <si>
+    <t>Pozsony_Laptop1</t>
+  </si>
+  <si>
+    <t>Felügyeleti vlan 19</t>
+  </si>
+  <si>
+    <t>192.168.5.129</t>
+  </si>
+  <si>
+    <t>192.168.5.130</t>
+  </si>
+  <si>
+    <t>192.168.5.161</t>
+  </si>
+  <si>
+    <t>192.168.5.162</t>
+  </si>
+  <si>
+    <t>192.168.5.193</t>
+  </si>
+  <si>
+    <t>192.168.5.225</t>
+  </si>
+  <si>
+    <t>192.168.5.226</t>
+  </si>
+  <si>
+    <t>192.168.5.194</t>
+  </si>
+  <si>
+    <t>192.168.5.65</t>
+  </si>
+  <si>
+    <t>192.168.5.66</t>
+  </si>
+  <si>
+    <t>192.168.5.1</t>
+  </si>
+  <si>
+    <t>192.168.5.2</t>
   </si>
 </sst>
 </file>
@@ -659,15 +725,81 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1108,11 +1240,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1156,12 +1473,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,60 +1500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1250,32 +1507,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,33 +1607,288 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,6 +1896,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFD60093"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1653,19 +2240,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1679,32 +2266,32 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="3"/>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -1728,217 +2315,217 @@
       <c r="Q5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="30" t="s">
-        <v>89</v>
+      <c r="R5" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="27">
+      <c r="J6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="25">
         <v>7</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="25">
         <v>30</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="25">
+        <v>5</v>
+      </c>
+      <c r="L7" s="25">
+        <v>30</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="3"/>
+      <c r="J8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="25">
+        <v>1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>6</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="27">
-        <v>5</v>
-      </c>
-      <c r="L7" s="27">
-        <v>30</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="27">
-        <v>1</v>
-      </c>
-      <c r="L8" s="27">
-        <v>6</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>87</v>
+      <c r="R8" s="24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="25">
+        <v>1</v>
+      </c>
+      <c r="L9" s="25">
+        <v>6</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="27">
-        <v>1</v>
-      </c>
-      <c r="L9" s="27">
-        <v>6</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="Q9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>88</v>
+      <c r="R9" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,14 +2719,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -2156,538 +2735,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:Q39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="25" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="25.28515625" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="J9" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="22">
-        <v>15</v>
-      </c>
-      <c r="L9" s="22">
-        <v>30</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="J10" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="22">
-        <v>15</v>
-      </c>
-      <c r="L10" s="22">
-        <v>30</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="J11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="22">
-        <v>15</v>
-      </c>
-      <c r="L11" s="22">
-        <v>30</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="3"/>
-      <c r="J12" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="22">
-        <v>15</v>
-      </c>
-      <c r="L12" s="22">
-        <v>30</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="J13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="22">
-        <v>40</v>
-      </c>
-      <c r="L13" s="22">
-        <v>62</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="3"/>
-      <c r="J14" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="22">
-        <v>40</v>
-      </c>
-      <c r="L14" s="22">
-        <v>62</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:A8"/>
@@ -2702,12 +2749,1001 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+    </row>
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="L2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="L3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="22">
+        <v>15</v>
+      </c>
+      <c r="N3" s="22">
+        <v>30</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="L4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="22">
+        <v>15</v>
+      </c>
+      <c r="N4" s="22">
+        <v>30</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="171" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
+      <c r="L5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="22">
+        <v>15</v>
+      </c>
+      <c r="N5" s="22">
+        <v>30</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="L6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="22">
+        <v>15</v>
+      </c>
+      <c r="N6" s="22">
+        <v>30</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
+      <c r="L7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="22">
+        <v>40</v>
+      </c>
+      <c r="N7" s="22">
+        <v>62</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="L8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="22">
+        <v>40</v>
+      </c>
+      <c r="N8" s="22">
+        <v>62</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="101"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="118"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="124"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="124"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="124"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="124"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="119"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="124"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="124"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="119"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="124"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="134"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="136"/>
+      <c r="C23" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="141"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="141"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="147"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
+    </row>
+    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="152"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="154" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="156"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="166" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="158" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="162"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="158" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="158" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="162"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="88">
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,852 +3765,797 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="N3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="N4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="31">
+        <v>8</v>
+      </c>
+      <c r="P4" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="N5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="31">
+        <v>8</v>
+      </c>
+      <c r="P5" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="59" t="s">
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="N6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="31">
+        <v>8</v>
+      </c>
+      <c r="P6" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
+      <c r="N7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="31">
         <v>4</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="52" t="s">
+      <c r="P7" s="31">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="N8" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="39">
+        <v>48</v>
+      </c>
+      <c r="P8" s="39">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="44">
+        <v>48</v>
+      </c>
+      <c r="P9" s="44">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+    </row>
+    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+    </row>
+    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="N3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="N4" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="33">
-        <v>8</v>
-      </c>
-      <c r="P4" s="33">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="N5" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="33">
-        <v>8</v>
-      </c>
-      <c r="P5" s="33">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="N6" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="33">
-        <v>8</v>
-      </c>
-      <c r="P6" s="33">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="N7" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="33">
-        <v>4</v>
-      </c>
-      <c r="P7" s="33">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="N8" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" s="68">
-        <v>48</v>
-      </c>
-      <c r="P8" s="68">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="U8" s="68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="73">
-        <v>48</v>
-      </c>
-      <c r="P9" s="73">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="U9" s="73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-    </row>
-    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-    </row>
-    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-    </row>
-    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-    </row>
-    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-    </row>
-    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-    </row>
-    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-    </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-    </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-    </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="52" t="s">
-        <v>160</v>
+      <c r="A21" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="32" t="s">
+        <v>147</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="52" t="s">
-        <v>162</v>
+      <c r="A22" s="67"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="52" t="s">
-        <v>163</v>
+      <c r="A23" s="67"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="52" t="s">
-        <v>164</v>
+      <c r="A24" s="67"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="52" t="s">
-        <v>165</v>
+      <c r="A25" s="67"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="52" t="s">
-        <v>166</v>
+      <c r="A26" s="67"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="52" t="s">
-        <v>167</v>
+      <c r="A27" s="67"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="52" t="s">
-        <v>168</v>
+      <c r="A28" s="68"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="76"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="52" t="s">
-        <v>170</v>
+      <c r="C30" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="76"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -3591,12 +4572,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072A80A-0558-412D-874A-D852904CAEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290C56D-F311-4D2E-B77F-69CBFACB9904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="0" windowWidth="14775" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="229">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -624,13 +624,109 @@
   </si>
   <si>
     <t>192.168.5.2</t>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+  </si>
+  <si>
+    <t>192.168.0.130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.145 </t>
+  </si>
+  <si>
+    <t>192.168.0.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.161 </t>
+  </si>
+  <si>
+    <t>192.168.0.162</t>
+  </si>
+  <si>
+    <t>192.168.0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.177 </t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>192.168.0.3</t>
+  </si>
+  <si>
+    <t>192.168.0.4</t>
+  </si>
+  <si>
+    <t>192.168.0.5</t>
+  </si>
+  <si>
+    <t>192.168.0.6</t>
+  </si>
+  <si>
+    <t>192.168.0.7</t>
+  </si>
+  <si>
+    <t>192.168.0.8</t>
+  </si>
+  <si>
+    <t>192.168.0.9</t>
+  </si>
+  <si>
+    <t>192.168.0.10</t>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+  </si>
+  <si>
+    <t>192.168.0.66</t>
+  </si>
+  <si>
+    <t>192.168.0.67</t>
+  </si>
+  <si>
+    <t>192.168.0.68</t>
+  </si>
+  <si>
+    <t>192.168.0.69</t>
+  </si>
+  <si>
+    <t>192.168.0.70</t>
+  </si>
+  <si>
+    <t>192.168.0.71</t>
+  </si>
+  <si>
+    <t>192.168.0.72</t>
+  </si>
+  <si>
+    <t>192.168.0.73</t>
+  </si>
+  <si>
+    <t>192.168.0.74</t>
+  </si>
+  <si>
+    <t>192.168.0.75</t>
+  </si>
+  <si>
+    <t>192.168.0.76</t>
+  </si>
+  <si>
+    <t>192.168.0.178</t>
+  </si>
+  <si>
+    <t>192.168.0.77</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +819,14 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1429,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1507,9 +1611,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,125 +1623,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,21 +1642,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1672,36 +1649,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,66 +1664,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1778,9 +1686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1788,18 +1693,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,15 +1700,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1823,72 +1707,285 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2240,19 +2337,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2266,30 +2363,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="3"/>
       <c r="J5" s="24" t="s">
         <v>36</v>
@@ -2320,8 +2417,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -2354,10 +2451,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="3"/>
       <c r="J7" s="25" t="s">
         <v>55</v>
@@ -2388,10 +2485,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="3"/>
       <c r="J8" s="25" t="s">
         <v>56</v>
@@ -2422,10 +2519,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2458,74 +2555,74 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2719,6 +2816,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -2735,14 +2840,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2753,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2779,46 +2876,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-    </row>
-    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="78" t="s">
+      <c r="H2" s="149"/>
+      <c r="I2" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="149"/>
       <c r="L2" s="20" t="s">
         <v>36</v>
       </c>
@@ -2845,20 +2942,20 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="L3" s="21" t="s">
         <v>110</v>
       </c>
@@ -2885,18 +2982,18 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="151"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="154"/>
       <c r="L4" s="21" t="s">
         <v>111</v>
       </c>
@@ -2923,24 +3020,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="152"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="171" t="s">
+      <c r="F5" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
       <c r="L5" s="21" t="s">
         <v>115</v>
       </c>
@@ -2967,26 +3064,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="93"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
       <c r="L6" s="21" t="s">
         <v>119</v>
       </c>
@@ -3013,24 +3110,24 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90" t="s">
+      <c r="A7" s="156"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="L7" s="21" t="s">
         <v>108</v>
       </c>
@@ -3057,26 +3154,26 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="L8" s="21" t="s">
         <v>106</v>
       </c>
@@ -3103,524 +3200,524 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97" t="s">
+      <c r="A9" s="144"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97" t="s">
+      <c r="A10" s="145"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110" t="s">
+      <c r="A13" s="159"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="118"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="136"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="124"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="121" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="124"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="124"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="124"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121" t="s">
+      <c r="A19" s="112"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="124"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="128"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121" t="s">
+      <c r="A20" s="112"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="124"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="128"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="121" t="s">
+      <c r="A21" s="112"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="124"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="128"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="134"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="140"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="141"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143" t="s">
+      <c r="A25" s="102"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="125"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="141"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143" t="s">
+      <c r="A26" s="102"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="141"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="147"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="125"/>
     </row>
     <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="115"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="153" t="s">
+      <c r="A30" s="106"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="115"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="155" t="s">
+      <c r="B31" s="73"/>
+      <c r="C31" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="154" t="s">
+      <c r="D31" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="154" t="s">
+      <c r="E31" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="154" t="s">
+      <c r="F31" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="G31" s="156"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="168" t="s">
+      <c r="C32" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="123"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="168" t="s">
+      <c r="C33" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="160" t="s">
+      <c r="C35" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="119"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="160" t="s">
+      <c r="C36" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="119"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="159" t="s">
+      <c r="B37" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="160" t="s">
+      <c r="C37" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="162"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="119"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="121"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="121"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -3631,85 +3728,29 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="65"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="108"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="G7:H7"/>
@@ -3721,860 +3762,7 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
-  <dimension ref="A1:U39"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="69"/>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="N3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="N4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="31">
-        <v>8</v>
-      </c>
-      <c r="P4" s="31">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
-      <c r="N5" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="31">
-        <v>8</v>
-      </c>
-      <c r="P5" s="31">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="N6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="31">
-        <v>8</v>
-      </c>
-      <c r="P6" s="31">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
-      <c r="N7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="31">
-        <v>4</v>
-      </c>
-      <c r="P7" s="31">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="N8" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="39">
-        <v>48</v>
-      </c>
-      <c r="P8" s="39">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="44">
-        <v>48</v>
-      </c>
-      <c r="P9" s="44">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-    </row>
-    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-    </row>
-    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-    </row>
-    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
-    </row>
-    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-    </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-    </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-    </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-    </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
-    </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
-    </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
-    </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
-    </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
-    </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
-    </row>
-    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-    </row>
-    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-    </row>
-    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="G12:H12"/>
@@ -4593,38 +3781,1060 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="20" max="21" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="161"/>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
+      <c r="N3" s="168" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="168" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="168" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="160"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="108"/>
+      <c r="N4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="31">
+        <v>8</v>
+      </c>
+      <c r="P4" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="160"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
+      <c r="N5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="31">
+        <v>8</v>
+      </c>
+      <c r="P5" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="N6" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="31">
+        <v>8</v>
+      </c>
+      <c r="P6" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="160"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="108"/>
+      <c r="N7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="31">
+        <v>4</v>
+      </c>
+      <c r="P7" s="31">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="N8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="38">
+        <v>48</v>
+      </c>
+      <c r="P8" s="38">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="160"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="42">
+        <v>48</v>
+      </c>
+      <c r="P9" s="42">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="160"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+    </row>
+    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="160"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="160"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="107"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="166"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="166"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="166"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="166"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="166"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="167"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="163"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="163"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
+    </row>
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="163"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
+    </row>
+    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="163"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="107"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="108"/>
+    </row>
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="163"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
+    </row>
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="163"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="164"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
+    </row>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="107"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="108"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="107"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="107"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="108"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="107"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="108"/>
+    </row>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="108"/>
+    </row>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="107"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="108"/>
+    </row>
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="107"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="108"/>
+    </row>
+    <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="108"/>
+    </row>
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="108"/>
+    </row>
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="108"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="G36:H36"/>
@@ -4633,6 +4843,81 @@
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290C56D-F311-4D2E-B77F-69CBFACB9904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605B570A-93AC-4C07-A317-ACAF228F974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="3495" yWindow="4425" windowWidth="16860" windowHeight="15345" activeTab="3" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
     <sheet name="Áruház" sheetId="3" r:id="rId2"/>
     <sheet name="Raktár" sheetId="2" r:id="rId3"/>
+    <sheet name="Köztes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="265">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -536,12 +537,6 @@
     <t>Pozsony_S1</t>
   </si>
   <si>
-    <t>G0/2</t>
-  </si>
-  <si>
-    <t>G0/6</t>
-  </si>
-  <si>
     <t>Pozsony_S2</t>
   </si>
   <si>
@@ -720,13 +715,127 @@
   </si>
   <si>
     <t>192.168.0.77</t>
+  </si>
+  <si>
+    <t>192.168.5.67</t>
+  </si>
+  <si>
+    <t>192.168.5.68</t>
+  </si>
+  <si>
+    <t>192.168.5.69</t>
+  </si>
+  <si>
+    <t>192.168.5.70</t>
+  </si>
+  <si>
+    <t>192.168.5.71</t>
+  </si>
+  <si>
+    <t>192.168.5.72</t>
+  </si>
+  <si>
+    <t>192.168.5.73</t>
+  </si>
+  <si>
+    <t>192.168.5.74</t>
+  </si>
+  <si>
+    <t>192.168.5.75</t>
+  </si>
+  <si>
+    <t>192.168.5.3</t>
+  </si>
+  <si>
+    <t>192.168.5.4</t>
+  </si>
+  <si>
+    <t>192.168.5.5</t>
+  </si>
+  <si>
+    <t>192.168.5.6</t>
+  </si>
+  <si>
+    <t>192.168.5.7</t>
+  </si>
+  <si>
+    <t>192.168.5.8</t>
+  </si>
+  <si>
+    <t>192.168.5.9</t>
+  </si>
+  <si>
+    <t>192.168.5.10</t>
+  </si>
+  <si>
+    <t>192.168.5.11</t>
+  </si>
+  <si>
+    <t>192.168.5.12</t>
+  </si>
+  <si>
+    <t>192.168.5.13</t>
+  </si>
+  <si>
+    <t>Port0 (nem aktív)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Köztes</t>
+  </si>
+  <si>
+    <t>Gyor_R0</t>
+  </si>
+  <si>
+    <t>130.10.10.0</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>130.10.10.1 - 130.10.10.2</t>
+  </si>
+  <si>
+    <t>130.10.10.3</t>
+  </si>
+  <si>
+    <t>130.10.10.4</t>
+  </si>
+  <si>
+    <t>130.10.10.5 - 130.10.10.6</t>
+  </si>
+  <si>
+    <t>130.10.10.7</t>
+  </si>
+  <si>
+    <t>130.10.10.8</t>
+  </si>
+  <si>
+    <t>130.10.10.9 - 130.10.10.10</t>
+  </si>
+  <si>
+    <t>130.10.10.11</t>
+  </si>
+  <si>
+    <t>130.10.10.5</t>
+  </si>
+  <si>
+    <t>255.255.255.255.252</t>
+  </si>
+  <si>
+    <t>130.10.10.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,8 +937,46 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,12 +1015,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1506,21 +1647,180 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1533,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1635,99 +1935,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,24 +1977,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,39 +1991,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1807,185 +1998,488 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1995,8 +2489,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FFFF9933"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF7C80"/>
@@ -2337,19 +2834,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2363,30 +2860,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="99"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="3"/>
       <c r="J5" s="24" t="s">
         <v>36</v>
@@ -2417,8 +2914,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -2451,10 +2948,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="3"/>
       <c r="J7" s="25" t="s">
         <v>55</v>
@@ -2485,10 +2982,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="3"/>
       <c r="J8" s="25" t="s">
         <v>56</v>
@@ -2519,10 +3016,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2555,74 +3052,74 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2816,14 +3313,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -2840,6 +3329,14 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2850,17 +3347,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
@@ -2875,47 +3372,47 @@
     <col min="19" max="19" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-    </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="148" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="149"/>
+      <c r="J2" s="78"/>
       <c r="L2" s="20" t="s">
         <v>36</v>
       </c>
@@ -2942,20 +3439,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="D3" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="84"/>
       <c r="L3" s="21" t="s">
         <v>110</v>
       </c>
@@ -2982,18 +3483,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="154"/>
+      <c r="D4" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="89"/>
       <c r="L4" s="21" t="s">
         <v>111</v>
       </c>
@@ -3019,25 +3524,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+    <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="95"/>
       <c r="L5" s="21" t="s">
         <v>115</v>
       </c>
@@ -3064,26 +3567,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="F6" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="99"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="101"/>
       <c r="L6" s="21" t="s">
         <v>119</v>
       </c>
@@ -3109,25 +3612,25 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47" t="s">
+    <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="F7" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="106"/>
       <c r="L7" s="21" t="s">
         <v>108</v>
       </c>
@@ -3154,26 +3657,26 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="F8" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="111"/>
       <c r="L8" s="21" t="s">
         <v>106</v>
       </c>
@@ -3199,548 +3702,758 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50" t="s">
+    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="118" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="121"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="126"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="131"/>
+    </row>
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="132"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="E13" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="157" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="52" t="s">
+      <c r="F13" s="133" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="134"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="136"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+    </row>
+    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="140"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="140"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="140"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="149" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="151"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="153"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="157"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="159"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="154"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="157"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="159"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="154"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="155" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="159"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="154"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="159"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="154"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="157"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="159"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="160"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="161" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="161" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="161" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="163"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="165"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="167" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="167" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="167" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="168"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="170"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="171"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="173" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="172" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="172" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="174"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="176"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="178"/>
+      <c r="C31" s="179" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="178" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="159"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="140"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="55" t="s">
+      <c r="F31" s="178" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="180"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="182"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="183" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="184" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="185" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="186" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="136"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="57" t="s">
+      <c r="F32" s="186" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="187"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="189"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="190" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="191" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="193" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="128"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="128"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="112"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="128"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="128"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="128"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="128"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="128"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="125"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="125"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="125"/>
-    </row>
-    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="115"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="115"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="74" t="s">
+      <c r="F33" s="186" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="194"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="196"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="197" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="191" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="116"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="80" t="s">
+      <c r="D34" s="199" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="186" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="200"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="202"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="204" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="205" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="204" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="204" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="204" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="207"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="210" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="204" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="204" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="204" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="212"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="214" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="215" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="216" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="216" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="218"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="155" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="123"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="80" t="s">
+      <c r="C38" s="155"/>
+      <c r="D38" s="155" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="123"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="119"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="119"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="119"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="78" t="s">
+      <c r="C39" s="155"/>
+      <c r="D39" s="155" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="121"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="220"/>
+      <c r="B40" s="221" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="121"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="108"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="224"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -3757,79 +4470,8 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3839,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F38"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O21" sqref="N21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,14 +4506,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -3892,14 +4534,14 @@
       <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="161"/>
+      <c r="J2" s="67"/>
       <c r="N2" t="s">
         <v>81</v>
       </c>
@@ -3912,7 +4554,7 @@
       <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="68" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="34"/>
@@ -3922,37 +4564,37 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
-      <c r="N3" s="168" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="N3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="168" t="s">
+      <c r="O3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="168" t="s">
+      <c r="P3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="168" t="s">
+      <c r="Q3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="168" t="s">
+      <c r="R3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="168" t="s">
+      <c r="S3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="168" t="s">
+      <c r="T3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="168" t="s">
+      <c r="U3" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="34"/>
       <c r="C4" s="32" t="s">
         <v>142</v>
@@ -3960,10 +4602,10 @@
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
       <c r="N4" s="30" t="s">
         <v>82</v>
       </c>
@@ -3990,22 +4632,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="34"/>
       <c r="C5" s="32" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="N5" s="30" t="s">
         <v>86</v>
       </c>
@@ -4032,7 +4674,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="68" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="34"/>
@@ -4040,18 +4682,18 @@
         <v>143</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
       <c r="N6" s="30" t="s">
         <v>90</v>
       </c>
@@ -4078,24 +4720,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="34"/>
       <c r="C7" s="32" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="N7" s="30" t="s">
         <v>94</v>
       </c>
@@ -4122,7 +4764,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="68" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="34"/>
@@ -4130,18 +4772,18 @@
         <v>143</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="N8" s="37" t="s">
         <v>98</v>
       </c>
@@ -4168,24 +4810,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="34"/>
       <c r="C9" s="32" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
       <c r="L9" s="39"/>
       <c r="M9" s="40"/>
       <c r="N9" s="41" t="s">
@@ -4214,27 +4856,27 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="34"/>
       <c r="C10" s="32" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="68" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="34"/>
@@ -4242,61 +4884,61 @@
         <v>144</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="34"/>
       <c r="C12" s="32" t="s">
         <v>145</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
         <v>146</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="69" t="s">
         <v>129</v>
       </c>
       <c r="B14" s="34"/>
@@ -4304,141 +4946,141 @@
         <v>147</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="166"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="34"/>
       <c r="C15" s="32" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="166"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="34"/>
       <c r="C16" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="166"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="34"/>
       <c r="C17" s="32" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="34"/>
       <c r="C18" s="32" t="s">
         <v>152</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="34"/>
       <c r="C19" s="32" t="s">
         <v>153</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="167"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="34"/>
       <c r="C20" s="32" t="s">
         <v>154</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="64" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="36"/>
@@ -4446,158 +5088,158 @@
         <v>147</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="36"/>
       <c r="C22" s="32" t="s">
         <v>149</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="36"/>
       <c r="C23" s="32" t="s">
         <v>150</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="163"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="36"/>
       <c r="C24" s="32" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="36"/>
       <c r="C25" s="32" t="s">
         <v>152</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="36"/>
       <c r="C26" s="32" t="s">
         <v>153</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="164"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
         <v>155</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -4608,18 +5250,18 @@
         <v>156</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="107"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -4630,18 +5272,18 @@
         <v>157</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>48</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="107"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4654,18 +5296,18 @@
         <v>157</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="107"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -4678,18 +5320,18 @@
         <v>157</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" s="107"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -4702,18 +5344,18 @@
         <v>157</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -4726,18 +5368,18 @@
         <v>157</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="107"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -4750,18 +5392,18 @@
         <v>157</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" s="107"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -4774,18 +5416,18 @@
         <v>157</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -4796,12 +5438,12 @@
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -4812,12 +5454,12 @@
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="108"/>
+        <v>195</v>
+      </c>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
@@ -4828,74 +5470,19 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="108"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -4912,15 +5499,219 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4B727F-DBFB-44AA-A62D-48CC65DAE88F}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F2B3A-560E-43B9-9BCB-7CE3D6DFFD56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419F21A9-5CAD-407D-AEC5-D52987DFCD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14850" yWindow="195" windowWidth="13890" windowHeight="14130" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -429,13 +429,46 @@
   </si>
   <si>
     <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>HSRP Virtuális IP</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>192.168.1.65</t>
+  </si>
+  <si>
+    <t>192.168.1.73</t>
+  </si>
+  <si>
+    <t>Gyor_N</t>
+  </si>
+  <si>
+    <t>192.168.1.80</t>
+  </si>
+  <si>
+    <t>192.168.1.81 192.168.1.86</t>
+  </si>
+  <si>
+    <t>192.168.1.87</t>
+  </si>
+  <si>
+    <t>VLAN 99</t>
+  </si>
+  <si>
+    <t>192.168.1.81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,15 +531,8 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -516,11 +542,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -885,35 +924,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -975,51 +1014,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,19 +1077,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,22 +1428,23 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1414,267 +1457,312 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+    <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3"/>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
+      <c r="S5" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="52">
         <v>7</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="52">
         <v>30</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="S6" s="50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="3"/>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="52">
         <v>5</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="52">
         <v>30</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="S7" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="3"/>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="52">
         <v>1</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="52">
         <v>6</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="S8" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="52">
         <v>1</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="52">
         <v>6</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="50" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="S9" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="J10" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="52">
+        <v>3</v>
+      </c>
+      <c r="L10" s="52">
+        <v>6</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+    <row r="12" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+    <row r="14" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+    <row r="16" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,14 +1956,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -1892,6 +1972,14 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1923,19 +2011,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1949,35 +2037,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -2007,10 +2095,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="3"/>
       <c r="J7" s="21" t="s">
         <v>48</v>
@@ -2038,10 +2126,10 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="3"/>
       <c r="J8" s="21" t="s">
         <v>44</v>
@@ -2069,10 +2157,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2102,8 +2190,8 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2133,10 +2221,10 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2166,10 +2254,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="3"/>
       <c r="J12" s="27"/>
       <c r="K12" s="28"/>
@@ -2181,10 +2269,10 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2198,42 +2286,42 @@
       <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,17 +2487,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -2423,6 +2500,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2455,19 +2543,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2481,61 +2569,61 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="J6" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="3"/>
       <c r="J8" s="26" t="s">
         <v>36</v>
@@ -2563,235 +2651,235 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="31">
         <v>8</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="31">
         <v>14</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="31">
         <v>8</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="31">
         <v>14</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="31">
         <v>8</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="31">
         <v>14</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="3"/>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="31">
         <v>4</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="31">
         <v>6</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="O12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="P12" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="Q12" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="31">
         <v>48</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="31">
         <v>62</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="Q13" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="3"/>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="31">
         <v>48</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="31">
         <v>62</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,17 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
@@ -3009,6 +3086,17 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB667ACB-F005-48AD-917C-55B64F2CC3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B572B19-159D-479F-82AF-76B1042035AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21315" yWindow="1350" windowWidth="16860" windowHeight="15345" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="292">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -2205,376 +2205,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2599,6 +2242,363 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,580 +2954,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="206" t="s">
+      <c r="E2" s="94" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="209" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="211" t="s">
+      <c r="D3" s="119"/>
+      <c r="E3" s="95" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="212"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="91"/>
-      <c r="J5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="212"/>
+      <c r="A6" s="110"/>
       <c r="B6" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="91"/>
-      <c r="J6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="17">
-        <v>7</v>
-      </c>
-      <c r="L6" s="17">
-        <v>30</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="215" t="s">
+      <c r="A7" s="109" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
       <c r="D7" s="91"/>
       <c r="E7" s="91"/>
-      <c r="J7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="17">
-        <v>5</v>
-      </c>
-      <c r="L7" s="17">
-        <v>30</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="216"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="24"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="91"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110"/>
+      <c r="B12" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="J12" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="105" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="110"/>
+      <c r="B13" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="J13" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="106">
+        <v>7</v>
+      </c>
+      <c r="L13" s="106">
+        <v>30</v>
+      </c>
+      <c r="M13" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="104" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="110"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="91"/>
+      <c r="J14" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="106">
+        <v>5</v>
+      </c>
+      <c r="L14" s="106">
+        <v>30</v>
+      </c>
+      <c r="M14" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="104" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="110"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="91"/>
+      <c r="J15" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K15" s="106">
         <v>1</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L15" s="106">
         <v>6</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M15" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N15" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O15" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P15" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q15" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R15" s="104" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="215" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="217" t="s">
+      <c r="S15" s="104" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="110"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="91"/>
+      <c r="J16" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="106">
+        <v>1</v>
+      </c>
+      <c r="L16" s="106">
+        <v>6</v>
+      </c>
+      <c r="M16" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="104" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="218" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="218" t="s">
+      <c r="C17" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="J9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="17">
-        <v>1</v>
-      </c>
-      <c r="L9" s="17">
+      <c r="E17" s="91"/>
+      <c r="J17" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="106">
+        <v>3</v>
+      </c>
+      <c r="L17" s="106">
         <v>6</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="17" t="s">
+      <c r="M17" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="N17" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O17" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="212"/>
-      <c r="B10" s="217" t="s">
+      <c r="P17" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q17" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="R17" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="S17" s="104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="110"/>
+      <c r="B18" s="98" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="218" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="218" t="s">
+      <c r="C18" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="91"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="212"/>
-      <c r="B11" s="217" t="s">
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="110"/>
+      <c r="B19" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="218" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="218" t="s">
+      <c r="C19" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="91"/>
-    </row>
-    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="212"/>
-      <c r="B12" s="217" t="s">
+      <c r="E19" s="91"/>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
+      <c r="B20" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="218" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="218" t="s">
+      <c r="C20" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="J12" s="223" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="223" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="223" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="223" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="223" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="223" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="223" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="223" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="224" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="224" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="212"/>
-      <c r="B13" s="217" t="s">
+      <c r="E20" s="91"/>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
+      <c r="B21" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="218" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="218" t="s">
+      <c r="C21" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="J13" s="225" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="225">
-        <v>7</v>
-      </c>
-      <c r="L13" s="225">
-        <v>30</v>
-      </c>
-      <c r="M13" s="223" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="225" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="226" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="223" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="227" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="223" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="223" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="212"/>
-      <c r="B14" s="217"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="91"/>
-      <c r="J14" s="225" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="225">
-        <v>5</v>
-      </c>
-      <c r="L14" s="225">
-        <v>30</v>
-      </c>
-      <c r="M14" s="223" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="225" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="226" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="223" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="227" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="223" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14" s="223" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="212"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="91"/>
-      <c r="J15" s="225" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="225">
-        <v>1</v>
-      </c>
-      <c r="L15" s="225">
-        <v>6</v>
-      </c>
-      <c r="M15" s="223" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="225" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="226" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="223" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="227" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="223" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="223" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="212"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="91"/>
-      <c r="J16" s="225" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="225">
-        <v>1</v>
-      </c>
-      <c r="L16" s="225">
-        <v>6</v>
-      </c>
-      <c r="M16" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="225" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="226" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="223" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="227" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="223" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="223" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="215" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="217" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="218" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="218" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="J17" s="225" t="s">
-        <v>286</v>
-      </c>
-      <c r="K17" s="225">
-        <v>3</v>
-      </c>
-      <c r="L17" s="225">
-        <v>6</v>
-      </c>
-      <c r="M17" s="223" t="s">
-        <v>287</v>
-      </c>
-      <c r="N17" s="225" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="226" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="223" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q17" s="223" t="s">
-        <v>289</v>
-      </c>
-      <c r="R17" s="223" t="s">
-        <v>290</v>
-      </c>
-      <c r="S17" s="223" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="212"/>
-      <c r="B18" s="217" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="218" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="218" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="91"/>
-    </row>
-    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="212"/>
-      <c r="B19" s="217" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="218" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="218" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="91"/>
-    </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="212"/>
-      <c r="B20" s="217" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="218" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="218" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="91"/>
-    </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="212"/>
-      <c r="B21" s="217" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="218" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="218" t="s">
-        <v>44</v>
-      </c>
       <c r="E21" s="91"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="212"/>
-      <c r="B22" s="217"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="91"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
-      <c r="B23" s="217"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
-      <c r="B24" s="217"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="91"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="215" t="s">
+      <c r="A25" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="24"/>
@@ -3536,20 +3446,20 @@
       <c r="E25" s="91"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="219"/>
+      <c r="E26" s="100"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="220"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="222"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3778,18 +3688,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3810,14 +3720,14 @@
       <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="98" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="99"/>
+      <c r="J2" s="202"/>
       <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
@@ -3844,7 +3754,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="203" t="s">
         <v>158</v>
       </c>
       <c r="B3" s="37"/>
@@ -3858,10 +3768,10 @@
         <v>249</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="105"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="208"/>
       <c r="L3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3888,7 +3798,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
         <v>138</v>
@@ -3900,10 +3810,10 @@
         <v>259</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="108"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="211"/>
       <c r="L4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3930,7 +3840,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>139</v>
@@ -3942,10 +3852,10 @@
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="111"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="214"/>
       <c r="L5" s="13" t="s">
         <v>111</v>
       </c>
@@ -3972,7 +3882,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="215" t="s">
         <v>161</v>
       </c>
       <c r="B6" s="42"/>
@@ -3988,10 +3898,10 @@
       <c r="F6" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="132"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="176"/>
       <c r="L6" s="13" t="s">
         <v>115</v>
       </c>
@@ -4018,7 +3928,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="216"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
         <v>143</v>
@@ -4032,10 +3942,10 @@
       <c r="F7" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="133"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="135"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="179"/>
       <c r="L7" s="13" t="s">
         <v>104</v>
       </c>
@@ -4062,7 +3972,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="180" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="45"/>
@@ -4078,10 +3988,10 @@
       <c r="F8" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="120"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
       <c r="L8" s="13" t="s">
         <v>102</v>
       </c>
@@ -4108,7 +4018,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
         <v>143</v>
@@ -4122,13 +4032,13 @@
       <c r="F9" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="123"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="196"/>
     </row>
     <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="138"/>
+      <c r="A10" s="182"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
         <v>144</v>
@@ -4142,13 +4052,13 @@
       <c r="F10" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="126"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="171" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="48"/>
@@ -4164,13 +4074,13 @@
       <c r="F11" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="116"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="188"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
         <v>141</v>
@@ -4184,13 +4094,13 @@
       <c r="F12" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="119"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="191"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="129"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
         <v>142</v>
@@ -4204,13 +4114,13 @@
       <c r="F13" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="141"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="185"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="120" t="s">
         <v>162</v>
       </c>
       <c r="B14" s="51"/>
@@ -4226,13 +4136,13 @@
       <c r="F14" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="177"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
         <v>145</v>
@@ -4246,13 +4156,13 @@
       <c r="F15" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="177"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
         <v>146</v>
@@ -4266,13 +4176,13 @@
       <c r="F16" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="177"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
         <v>147</v>
@@ -4286,13 +4196,13 @@
       <c r="F17" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="177"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
         <v>148</v>
@@ -4306,13 +4216,13 @@
       <c r="F18" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="177"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
         <v>149</v>
@@ -4326,13 +4236,13 @@
       <c r="F19" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="177"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
         <v>150</v>
@@ -4346,13 +4256,13 @@
       <c r="F20" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
     </row>
     <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="178"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
         <v>151</v>
@@ -4366,13 +4276,13 @@
       <c r="F21" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="166" t="s">
         <v>163</v>
       </c>
       <c r="B22" s="56"/>
@@ -4388,13 +4298,13 @@
       <c r="F22" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="G22" s="150"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="169"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
+      <c r="A23" s="167"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
         <v>145</v>
@@ -4408,13 +4318,13 @@
       <c r="F23" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="147"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="149"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
         <v>146</v>
@@ -4428,13 +4338,13 @@
       <c r="F24" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="147"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="149"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
+      <c r="A25" s="167"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59" t="s">
         <v>147</v>
@@ -4448,13 +4358,13 @@
       <c r="F25" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="149"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
+      <c r="A26" s="167"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59" t="s">
         <v>148</v>
@@ -4468,13 +4378,13 @@
       <c r="F26" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="149"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="145"/>
+      <c r="A27" s="167"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
         <v>149</v>
@@ -4488,13 +4398,13 @@
       <c r="F27" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="147"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="149"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
         <v>150</v>
@@ -4508,13 +4418,13 @@
       <c r="F28" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="170"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="149"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="124" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="62"/>
@@ -4530,13 +4440,13 @@
       <c r="F29" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="G29" s="171"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="173"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="152"/>
     </row>
     <row r="30" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="181"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
         <v>164</v>
@@ -4550,10 +4460,10 @@
       <c r="F30" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="162"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="164"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="141"/>
     </row>
     <row r="31" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
@@ -4572,10 +4482,10 @@
       <c r="F31" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="165"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="167"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="144"/>
     </row>
     <row r="32" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
@@ -4596,10 +4506,10 @@
       <c r="F32" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="154"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="156"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="162"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
@@ -4620,10 +4530,10 @@
       <c r="F33" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="157"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="159"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
@@ -4644,10 +4554,10 @@
       <c r="F34" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="188"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="190"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="134"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="79" t="s">
@@ -4668,10 +4578,10 @@
       <c r="F35" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="192"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="136"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="82" t="s">
@@ -4692,10 +4602,10 @@
       <c r="F36" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="159"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="85" t="s">
@@ -4716,10 +4626,10 @@
       <c r="F37" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="186"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
@@ -4738,10 +4648,10 @@
       <c r="F38" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
@@ -4760,10 +4670,10 @@
       <c r="F39" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="89"/>
@@ -4774,19 +4684,91 @@
       <c r="D40" s="90"/>
       <c r="E40" s="90"/>
       <c r="F40" s="90"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="184"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="I41:J41"/>
@@ -4803,78 +4785,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4911,14 +4821,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4939,14 +4849,14 @@
       <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198" t="s">
+      <c r="H2" s="218"/>
+      <c r="I2" s="218" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="198"/>
+      <c r="J2" s="218"/>
       <c r="N2" t="s">
         <v>77</v>
       </c>
@@ -4959,7 +4869,7 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="217" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="26"/>
@@ -4969,10 +4879,10 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="194"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="220"/>
       <c r="N3" s="35" t="s">
         <v>32</v>
       </c>
@@ -4999,7 +4909,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="199"/>
+      <c r="A4" s="217"/>
       <c r="B4" s="26"/>
       <c r="C4" s="24" t="s">
         <v>138</v>
@@ -5007,10 +4917,10 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="194"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="220"/>
       <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
@@ -5037,7 +4947,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199"/>
+      <c r="A5" s="217"/>
       <c r="B5" s="26"/>
       <c r="C5" s="24" t="s">
         <v>139</v>
@@ -5049,10 +4959,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="194"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="220"/>
       <c r="N5" s="22" t="s">
         <v>82</v>
       </c>
@@ -5079,7 +4989,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="217" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="26"/>
@@ -5095,10 +5005,10 @@
       <c r="F6" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="193"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="194"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="220"/>
       <c r="N6" s="22" t="s">
         <v>86</v>
       </c>
@@ -5125,7 +5035,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="199"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="26"/>
       <c r="C7" s="24" t="s">
         <v>143</v>
@@ -5139,10 +5049,10 @@
       <c r="F7" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="220"/>
       <c r="N7" s="22" t="s">
         <v>90</v>
       </c>
@@ -5169,7 +5079,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="217" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="26"/>
@@ -5185,10 +5095,10 @@
       <c r="F8" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="220"/>
       <c r="N8" s="29" t="s">
         <v>94</v>
       </c>
@@ -5215,7 +5125,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="26"/>
       <c r="C9" s="24" t="s">
         <v>143</v>
@@ -5229,10 +5139,10 @@
       <c r="F9" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="220"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
       <c r="N9" s="33" t="s">
@@ -5261,7 +5171,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="26"/>
       <c r="C10" s="24" t="s">
         <v>144</v>
@@ -5275,13 +5185,13 @@
       <c r="F10" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="217" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="26"/>
@@ -5297,13 +5207,13 @@
       <c r="F11" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
         <v>141</v>
@@ -5317,13 +5227,13 @@
       <c r="F12" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="193"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="220"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24" t="s">
         <v>142</v>
@@ -5337,13 +5247,13 @@
       <c r="F13" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="220"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="224" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="26"/>
@@ -5359,13 +5269,13 @@
       <c r="F14" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="220"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201"/>
+      <c r="A15" s="225"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24" t="s">
         <v>145</v>
@@ -5379,13 +5289,13 @@
       <c r="F15" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="220"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
+      <c r="A16" s="225"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
         <v>146</v>
@@ -5399,13 +5309,13 @@
       <c r="F16" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
+      <c r="A17" s="225"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24" t="s">
         <v>147</v>
@@ -5419,13 +5329,13 @@
       <c r="F17" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
+      <c r="A18" s="225"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24" t="s">
         <v>148</v>
@@ -5439,13 +5349,13 @@
       <c r="F18" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
+      <c r="A19" s="225"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24" t="s">
         <v>149</v>
@@ -5459,13 +5369,13 @@
       <c r="F19" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="220"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="202"/>
+      <c r="A20" s="226"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24" t="s">
         <v>150</v>
@@ -5479,13 +5389,13 @@
       <c r="F20" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="193"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="221" t="s">
         <v>126</v>
       </c>
       <c r="B21" s="28"/>
@@ -5501,13 +5411,13 @@
       <c r="F21" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="193"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="196"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
         <v>145</v>
@@ -5521,13 +5431,13 @@
       <c r="F22" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="193"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="220"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="196"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="28"/>
       <c r="C23" s="24" t="s">
         <v>146</v>
@@ -5541,13 +5451,13 @@
       <c r="F23" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="193"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="220"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="196"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
         <v>147</v>
@@ -5561,13 +5471,13 @@
       <c r="F24" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="193"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="220"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="196"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
         <v>148</v>
@@ -5581,13 +5491,13 @@
       <c r="F25" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="193"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="220"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="196"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="28"/>
       <c r="C26" s="24" t="s">
         <v>149</v>
@@ -5601,13 +5511,13 @@
       <c r="F26" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G26" s="193"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="220"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="196"/>
+      <c r="A27" s="222"/>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
         <v>150</v>
@@ -5621,13 +5531,13 @@
       <c r="F27" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="193"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="220"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="197"/>
+      <c r="A28" s="223"/>
       <c r="B28" s="28"/>
       <c r="C28" s="24" t="s">
         <v>151</v>
@@ -5641,10 +5551,10 @@
       <c r="F28" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="220"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -5663,10 +5573,10 @@
       <c r="F29" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="220"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -5685,10 +5595,10 @@
       <c r="F30" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="193"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="220"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5709,10 +5619,10 @@
       <c r="F31" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="193"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="220"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5733,10 +5643,10 @@
       <c r="F32" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="193"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="220"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5757,10 +5667,10 @@
       <c r="F33" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="193"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="220"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5781,10 +5691,10 @@
       <c r="F34" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="193"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="220"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5805,10 +5715,10 @@
       <c r="F35" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="193"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="220"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5829,10 +5739,10 @@
       <c r="F36" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="193"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5845,10 +5755,10 @@
       <c r="F37" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G37" s="193"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="220"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5861,10 +5771,10 @@
       <c r="F38" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="G38" s="193"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="220"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -5875,19 +5785,74 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -5904,67 +5869,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5993,20 +5903,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="227" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="A2" s="227"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B572B19-159D-479F-82AF-76B1042035AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BCEDB-8330-4171-8C2E-30918AA290A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21315" yWindow="1350" windowWidth="16860" windowHeight="15345" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="16620" yWindow="-45" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -348,9 +348,6 @@
     <t>192.168.5.1 - 192.168.5.62</t>
   </si>
   <si>
-    <t>Pozsony_F</t>
-  </si>
-  <si>
     <t>192.168.5.65 - 192.168.5.126</t>
   </si>
   <si>
@@ -384,15 +381,6 @@
     <t>Pozsony_D</t>
   </si>
   <si>
-    <t>192.168.5.224</t>
-  </si>
-  <si>
-    <t>192.168.5.225 - 192.168.5.254</t>
-  </si>
-  <si>
-    <t>192.168.5.255</t>
-  </si>
-  <si>
     <t>Pozsony - Áruház</t>
   </si>
   <si>
@@ -588,12 +576,6 @@
     <t>192.168.5.193</t>
   </si>
   <si>
-    <t>192.168.5.225</t>
-  </si>
-  <si>
-    <t>192.168.5.226</t>
-  </si>
-  <si>
     <t>192.168.5.194</t>
   </si>
   <si>
@@ -765,9 +747,6 @@
     <t>192.168.5.13</t>
   </si>
   <si>
-    <t>Port0 (nem aktív)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -811,9 +790,6 @@
   </si>
   <si>
     <t>130.10.10.5</t>
-  </si>
-  <si>
-    <t>255.255.255.255.252</t>
   </si>
   <si>
     <t>130.10.10.6</t>
@@ -911,6 +887,33 @@
   </si>
   <si>
     <t>192.168.1.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port0 </t>
+  </si>
+  <si>
+    <t>192.168.5.76</t>
+  </si>
+  <si>
+    <t>192.168.5.77</t>
+  </si>
+  <si>
+    <t>G0/2</t>
+  </si>
+  <si>
+    <t>Pozsony_Printer_1</t>
+  </si>
+  <si>
+    <t>F0/4</t>
+  </si>
+  <si>
+    <t>F0/5</t>
+  </si>
+  <si>
+    <t>F0/6</t>
+  </si>
+  <si>
+    <t>F0/7</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1222,21 +1225,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1647,21 +1635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1716,15 +1689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1739,19 +1703,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1941,11 +1892,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1959,18 +1925,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1985,19 +1951,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2013,211 +1979,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2225,13 +2152,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,16 +2167,37 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2261,343 +2209,346 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2930,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J5" sqref="J5:S9"/>
     </sheetView>
   </sheetViews>
@@ -2954,61 +2905,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="95" t="s">
+      <c r="D3" s="113"/>
+      <c r="E3" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="92"/>
+      <c r="A4" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="91"/>
+      <c r="E5" s="78"/>
       <c r="J5" s="16"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -3020,13 +2971,13 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="91"/>
+      <c r="E6" s="78"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -3038,13 +2989,13 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="103" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -3056,11 +3007,11 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -3072,19 +3023,19 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="99" t="s">
+      <c r="A9" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="78"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -3096,370 +3047,370 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="98" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="J12" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="J13" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="93">
+        <v>7</v>
+      </c>
+      <c r="L13" s="93">
+        <v>30</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="78"/>
+      <c r="J14" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="93">
+        <v>5</v>
+      </c>
+      <c r="L14" s="93">
+        <v>30</v>
+      </c>
+      <c r="M14" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="78"/>
+      <c r="J15" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="93">
+        <v>1</v>
+      </c>
+      <c r="L15" s="93">
+        <v>6</v>
+      </c>
+      <c r="M15" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="78"/>
+      <c r="J16" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="93">
+        <v>1</v>
+      </c>
+      <c r="L16" s="93">
+        <v>6</v>
+      </c>
+      <c r="M16" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="B17" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D17" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="91"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="98" t="s">
+      <c r="E17" s="78"/>
+      <c r="J17" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="93">
+        <v>3</v>
+      </c>
+      <c r="L17" s="93">
+        <v>6</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="N17" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q17" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="R17" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="S17" s="91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="D18" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D19" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="91"/>
-    </row>
-    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="98" t="s">
+      <c r="E19" s="78"/>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="D20" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="78"/>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="J12" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="105" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="J13" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="106">
-        <v>7</v>
-      </c>
-      <c r="L13" s="106">
-        <v>30</v>
-      </c>
-      <c r="M13" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="91"/>
-      <c r="J14" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="106">
-        <v>5</v>
-      </c>
-      <c r="L14" s="106">
-        <v>30</v>
-      </c>
-      <c r="M14" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14" s="104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="91"/>
-      <c r="J15" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="106">
-        <v>1</v>
-      </c>
-      <c r="L15" s="106">
-        <v>6</v>
-      </c>
-      <c r="M15" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="104" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="91"/>
-      <c r="J16" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="106">
-        <v>1</v>
-      </c>
-      <c r="L16" s="106">
-        <v>6</v>
-      </c>
-      <c r="M16" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="J17" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="K17" s="106">
-        <v>3</v>
-      </c>
-      <c r="L17" s="106">
-        <v>6</v>
-      </c>
-      <c r="M17" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="N17" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="104" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q17" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="R17" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="S17" s="104" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="91"/>
-    </row>
-    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="98" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="91"/>
-    </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="91"/>
-    </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="91"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="91"/>
+      <c r="E22" s="78"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="98"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="91"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="91"/>
+      <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="103" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="24"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="100"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3662,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,18 +3639,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="A1" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3720,14 +3671,14 @@
       <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="I2" s="201" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="202"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="117"/>
       <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
@@ -3754,26 +3705,26 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
-        <v>158</v>
+      <c r="A3" s="118" t="s">
+        <v>154</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="208"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="123"/>
       <c r="L3" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" s="14">
         <v>15</v>
@@ -3798,24 +3749,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="211"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="126"/>
       <c r="L4" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="14">
         <v>15</v>
@@ -3824,7 +3775,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>48</v>
@@ -3833,31 +3784,31 @@
         <v>49</v>
       </c>
       <c r="R4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="205"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="214"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="129"/>
       <c r="L5" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" s="14">
         <v>15</v>
@@ -3866,7 +3817,7 @@
         <v>30</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>48</v>
@@ -3875,884 +3826,880 @@
         <v>49</v>
       </c>
       <c r="R5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="14" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="215" t="s">
-        <v>161</v>
+      <c r="A6" s="130" t="s">
+        <v>157</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="174"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="176"/>
+        <v>175</v>
+      </c>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="137"/>
       <c r="L6" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M6" s="14">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N6" s="14">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="216"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="177"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="179"/>
-      <c r="L7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="140"/>
+      <c r="L7" s="210" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="211">
+        <v>40</v>
+      </c>
+      <c r="N7" s="211">
+        <v>62</v>
+      </c>
+      <c r="O7" s="211" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="211" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="211" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="14">
-        <v>40</v>
-      </c>
-      <c r="N7" s="14">
-        <v>62</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="211" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="180" t="s">
-        <v>160</v>
+    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
+        <v>156</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="193"/>
-      <c r="L8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="14">
-        <v>40</v>
-      </c>
-      <c r="N8" s="14">
-        <v>62</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="181"/>
+        <v>175</v>
+      </c>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="153"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="142"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="196"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
+        <v>175</v>
+      </c>
+      <c r="G9" s="212"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="214"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="143"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="197"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="199"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="217"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
-        <v>159</v>
+      <c r="A11" s="132" t="s">
+        <v>155</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="186"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="188"/>
+        <v>175</v>
+      </c>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="189"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="191"/>
+        <v>175</v>
+      </c>
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="152"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="183"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="185"/>
+        <v>175</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="146"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="209"/>
+      <c r="P13" s="209"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="209"/>
+      <c r="S13" s="209"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
-        <v>162</v>
+      <c r="A14" s="186" t="s">
+        <v>158</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
+        <v>175</v>
+      </c>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="209"/>
+      <c r="P14" s="209"/>
+      <c r="Q14" s="209"/>
+      <c r="R14" s="209"/>
+      <c r="S14" s="209"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="187"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
+        <v>175</v>
+      </c>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="209"/>
+      <c r="P15" s="209"/>
+      <c r="Q15" s="209"/>
+      <c r="R15" s="209"/>
+      <c r="S15" s="209"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
+      <c r="A16" s="187"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
+        <v>175</v>
+      </c>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="209"/>
+      <c r="P16" s="209"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="209"/>
+      <c r="S16" s="209"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="187"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
+        <v>175</v>
+      </c>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="209"/>
+      <c r="Q17" s="209"/>
+      <c r="R17" s="209"/>
+      <c r="S17" s="209"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="187"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
+        <v>175</v>
+      </c>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="187"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
+        <v>175</v>
+      </c>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="187"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
+        <v>175</v>
+      </c>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="188"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="166" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="156" t="s">
+        <v>159</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E22" s="56" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="155"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="169"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
+        <v>175</v>
+      </c>
+      <c r="G22" s="162"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
+    </row>
+    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="157"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="145"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
+        <v>175</v>
+      </c>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="161"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="157"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="145"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="167"/>
+        <v>175</v>
+      </c>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="161"/>
+    </row>
+    <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="157"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="145"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="167"/>
+        <v>175</v>
+      </c>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="161"/>
+    </row>
+    <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="157"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="167"/>
+        <v>175</v>
+      </c>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="161"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="157"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="145"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="168"/>
+        <v>175</v>
+      </c>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="161"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="158"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E28" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="147"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="149"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124" t="s">
-        <v>166</v>
+        <v>175</v>
+      </c>
+      <c r="G28" s="178"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="180"/>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="189" t="s">
+        <v>162</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="62" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="152"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="125"/>
+        <v>237</v>
+      </c>
+      <c r="G29" s="181"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="183"/>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="190"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="139"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="141"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="174"/>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="218" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="219"/>
+      <c r="C31" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="175"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="177"/>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="164"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="166"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="167"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="169"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="144"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="B34" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="191"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="193"/>
+    </row>
+    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="222" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="191"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="193"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="220" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="221" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="195"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B37" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="195"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="195"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" s="71" t="s">
+      <c r="B39" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="160"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="162"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="75" t="s">
+      <c r="F39" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="163"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="165"/>
-    </row>
-    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="132"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="134"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="80" t="s">
+      <c r="F40" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="76"/>
+      <c r="B41" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="136"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="E37" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="130"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="128"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
+  <mergeCells count="78">
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -4769,22 +4716,58 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4796,7 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O21" sqref="N21:O21"/>
     </sheetView>
   </sheetViews>
@@ -4821,14 +4804,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="A1" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4849,14 +4832,14 @@
       <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="218" t="s">
+      <c r="G2" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="218"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="201"/>
       <c r="N2" t="s">
         <v>77</v>
       </c>
@@ -4869,20 +4852,20 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
-        <v>121</v>
+      <c r="A3" s="202" t="s">
+        <v>117</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="220"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="197"/>
       <c r="N3" s="35" t="s">
         <v>32</v>
       </c>
@@ -4909,18 +4892,18 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="217"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="26"/>
       <c r="C4" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="220"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
       <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
@@ -4947,22 +4930,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="217"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="26"/>
       <c r="C5" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="220"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
       <c r="N5" s="22" t="s">
         <v>82</v>
       </c>
@@ -4989,26 +4972,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="217" t="s">
-        <v>122</v>
+      <c r="A6" s="202" t="s">
+        <v>118</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G6" s="196"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="N6" s="22" t="s">
         <v>86</v>
       </c>
@@ -5035,24 +5018,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="26"/>
       <c r="C7" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
       <c r="N7" s="22" t="s">
         <v>90</v>
       </c>
@@ -5079,26 +5062,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="217" t="s">
-        <v>123</v>
+      <c r="A8" s="202" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
       <c r="N8" s="29" t="s">
         <v>94</v>
       </c>
@@ -5125,24 +5108,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="217"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="26"/>
       <c r="C9" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="219"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
       <c r="N9" s="33" t="s">
@@ -5171,688 +5154,633 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="26"/>
       <c r="C10" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="219"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
-        <v>124</v>
+      <c r="A11" s="202" t="s">
+        <v>120</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="219"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="219"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="219"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="224" t="s">
-        <v>125</v>
+      <c r="A14" s="203" t="s">
+        <v>121</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="219"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="225"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="219"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="225"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="219"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="225"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="219"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="225"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="219"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="225"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="219"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="226"/>
+      <c r="A20" s="205"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="219"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="221" t="s">
-        <v>126</v>
+      <c r="A21" s="198" t="s">
+        <v>122</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="219"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G22" s="219"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="28"/>
       <c r="C23" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="219"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G23" s="196"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="222"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="219"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G25" s="219"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="222"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="28"/>
       <c r="C26" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="219"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="219"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="223"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="28"/>
       <c r="C28" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="219"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="219"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="219"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="219"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="219"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="219"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" s="219"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G34" s="196"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="219"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G35" s="196"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G36" s="219"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="219"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G37" s="196"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="219"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="220"/>
+        <v>185</v>
+      </c>
+      <c r="G38" s="196"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="220"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -5869,12 +5797,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5903,20 +5886,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
+      <c r="A1" s="206" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="227"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5946,7 +5929,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -5955,24 +5938,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -5981,24 +5964,24 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
@@ -6007,19 +5990,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BCEDB-8330-4171-8C2E-30918AA290A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F610F380-6D7E-45CF-9267-47779CF03283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="-45" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="3855" yWindow="1350" windowWidth="21975" windowHeight="14130" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="295">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -456,9 +456,6 @@
     <t>G0/1</t>
   </si>
   <si>
-    <t>Fa0/0/0</t>
-  </si>
-  <si>
     <t>Fa0/1</t>
   </si>
   <si>
@@ -914,13 +911,22 @@
   </si>
   <si>
     <t>F0/7</t>
+  </si>
+  <si>
+    <t>Se0/0/0</t>
+  </si>
+  <si>
+    <t>Se0/0/1</t>
+  </si>
+  <si>
+    <t>130.10.10.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1095,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1911,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2126,9 +2146,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2182,14 +2199,53 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2224,172 +2280,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2416,6 +2334,12 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2434,41 +2358,179 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2485,12 +2547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,53 +2559,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2905,61 +2928,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="116"/>
+      <c r="B5" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="79"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="78"/>
+      <c r="E5" s="26"/>
       <c r="J5" s="16"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -2971,13 +2994,13 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="78"/>
+      <c r="E6" s="26"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -2989,13 +3012,13 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="115" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
@@ -3007,11 +3030,11 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
@@ -3023,19 +3046,19 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="C9" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="26"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
@@ -3047,370 +3070,370 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="D10" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="116"/>
+      <c r="B11" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="C11" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116"/>
+      <c r="B12" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="J12" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="91" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="116"/>
+      <c r="B13" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="J13" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="92">
+        <v>7</v>
+      </c>
+      <c r="L13" s="92">
+        <v>30</v>
+      </c>
+      <c r="M13" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="116"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="26"/>
+      <c r="J14" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="92">
+        <v>5</v>
+      </c>
+      <c r="L14" s="92">
+        <v>30</v>
+      </c>
+      <c r="M14" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="116"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="26"/>
+      <c r="J15" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="92">
+        <v>1</v>
+      </c>
+      <c r="L15" s="92">
+        <v>6</v>
+      </c>
+      <c r="M15" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="90" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="116"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="26"/>
+      <c r="J16" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="92">
+        <v>1</v>
+      </c>
+      <c r="L16" s="92">
+        <v>6</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="78"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="86" t="s">
+      <c r="E17" s="26"/>
+      <c r="J17" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="92">
+        <v>3</v>
+      </c>
+      <c r="L17" s="92">
+        <v>6</v>
+      </c>
+      <c r="M17" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="N17" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="R17" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="S17" s="90" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="116"/>
+      <c r="B18" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="116"/>
+      <c r="B19" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="116"/>
+      <c r="B20" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="C20" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="78"/>
-    </row>
-    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="86" t="s">
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="116"/>
+      <c r="B21" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="C21" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="J12" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="78"/>
-      <c r="J13" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="93">
-        <v>7</v>
-      </c>
-      <c r="L13" s="93">
-        <v>30</v>
-      </c>
-      <c r="M13" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="91" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="78"/>
-      <c r="J14" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="93">
-        <v>5</v>
-      </c>
-      <c r="L14" s="93">
-        <v>30</v>
-      </c>
-      <c r="M14" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14" s="91" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="78"/>
-      <c r="J15" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="93">
-        <v>1</v>
-      </c>
-      <c r="L15" s="93">
-        <v>6</v>
-      </c>
-      <c r="M15" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="91" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="78"/>
-      <c r="J16" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="93">
-        <v>1</v>
-      </c>
-      <c r="L16" s="93">
-        <v>6</v>
-      </c>
-      <c r="M16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="91" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="78"/>
-      <c r="J17" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="K17" s="93">
-        <v>3</v>
-      </c>
-      <c r="L17" s="93">
-        <v>6</v>
-      </c>
-      <c r="M17" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="N17" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q17" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="R17" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="S17" s="91" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="78"/>
-    </row>
-    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="78"/>
-    </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="78"/>
-    </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="78"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="78"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="115" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="24"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="87"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3613,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,18 +3662,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3671,14 +3694,14 @@
       <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="117"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="192" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="193"/>
       <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
@@ -3705,24 +3728,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
-        <v>154</v>
+      <c r="A3" s="194" t="s">
+        <v>153</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>251</v>
+      <c r="D3" s="222" t="s">
+        <v>250</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="123"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="199"/>
       <c r="L3" s="13" t="s">
         <v>105</v>
       </c>
@@ -3749,22 +3772,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>252</v>
+      <c r="D4" s="223" t="s">
+        <v>251</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="126"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="202"/>
       <c r="L4" s="13" t="s">
         <v>106</v>
       </c>
@@ -3791,22 +3814,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="129"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="205"/>
       <c r="L5" s="13" t="s">
         <v>110</v>
       </c>
@@ -3833,26 +3856,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>157</v>
+      <c r="A6" s="206" t="s">
+        <v>156</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="137"/>
+        <v>174</v>
+      </c>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="173"/>
       <c r="L6" s="13" t="s">
         <v>114</v>
       </c>
@@ -3879,827 +3902,863 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="140"/>
-      <c r="L7" s="210" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="174"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="176"/>
+      <c r="L7" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="211">
+      <c r="M7" s="103">
         <v>40</v>
       </c>
-      <c r="N7" s="211">
+      <c r="N7" s="103">
         <v>62</v>
       </c>
-      <c r="O7" s="211" t="s">
+      <c r="O7" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="211" t="s">
+      <c r="P7" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="211" t="s">
+      <c r="Q7" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="211" t="s">
+      <c r="R7" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="211" t="s">
+      <c r="S7" s="103" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
-        <v>156</v>
+      <c r="A8" s="177" t="s">
+        <v>155</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="153"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="209"/>
-      <c r="N8" s="209"/>
-      <c r="O8" s="209"/>
-      <c r="P8" s="209"/>
-      <c r="Q8" s="209"/>
-      <c r="R8" s="209"/>
-      <c r="S8" s="209"/>
+        <v>174</v>
+      </c>
+      <c r="G8" s="189"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
+      <c r="A9" s="178"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
         <v>139</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="212"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="214"/>
+        <v>174</v>
+      </c>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="217"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
-        <v>155</v>
+      <c r="A11" s="168" t="s">
+        <v>154</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="149"/>
+        <v>174</v>
+      </c>
+      <c r="G11" s="183"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="185"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="152"/>
-      <c r="L12" s="207"/>
-      <c r="M12" s="207"/>
-      <c r="N12" s="207"/>
-      <c r="O12" s="207"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="207"/>
-      <c r="R12" s="207"/>
-      <c r="S12" s="207"/>
+        <v>174</v>
+      </c>
+      <c r="G12" s="186"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="188"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="146"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="209"/>
-      <c r="P13" s="209"/>
-      <c r="Q13" s="209"/>
-      <c r="R13" s="209"/>
-      <c r="S13" s="209"/>
+        <v>174</v>
+      </c>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="182"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="186" t="s">
-        <v>158</v>
+      <c r="A14" s="128" t="s">
+        <v>157</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
-      <c r="P14" s="209"/>
-      <c r="Q14" s="209"/>
-      <c r="R14" s="209"/>
-      <c r="S14" s="209"/>
+        <v>174</v>
+      </c>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="187"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="209"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
+        <v>174</v>
+      </c>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="187"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="209"/>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="209"/>
-      <c r="S16" s="209"/>
+        <v>174</v>
+      </c>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="187"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
-      <c r="P17" s="209"/>
-      <c r="Q17" s="209"/>
-      <c r="R17" s="209"/>
-      <c r="S17" s="209"/>
+        <v>174</v>
+      </c>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
+        <v>174</v>
+      </c>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
+        <v>174</v>
+      </c>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
+        <v>174</v>
+      </c>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="188"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
+        <v>174</v>
+      </c>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="156" t="s">
-        <v>159</v>
+      <c r="A22" s="163" t="s">
+        <v>158</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="57" t="s">
         <v>139</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="56" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+        <v>174</v>
+      </c>
+      <c r="G22" s="154"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="161"/>
+        <v>174</v>
+      </c>
+      <c r="G23" s="144"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="145"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="161"/>
+        <v>174</v>
+      </c>
+      <c r="G24" s="144"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="145"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="157"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="161"/>
+        <v>174</v>
+      </c>
+      <c r="G25" s="144"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="145"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="157"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="161"/>
+        <v>174</v>
+      </c>
+      <c r="G26" s="144"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="145"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="159"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="161"/>
+        <v>174</v>
+      </c>
+      <c r="G27" s="144"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="178"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="180"/>
+        <v>174</v>
+      </c>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="148"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="189" t="s">
-        <v>162</v>
+      <c r="A29" s="131" t="s">
+        <v>161</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="181"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="183"/>
+        <v>236</v>
+      </c>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="151"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="190"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="174"/>
+        <v>174</v>
+      </c>
+      <c r="G30" s="138"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="140"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="218" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="219"/>
+      <c r="A31" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="111"/>
       <c r="C31" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E31" s="65" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="175"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="177"/>
+        <v>174</v>
+      </c>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="143"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32" s="68" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="164"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="166"/>
+        <v>174</v>
+      </c>
+      <c r="G32" s="157"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="159"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="167"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="169"/>
+        <v>174</v>
+      </c>
+      <c r="G33" s="160"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="162"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E34" s="70" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="191"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="193"/>
+        <v>174</v>
+      </c>
+      <c r="G34" s="133"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="222" t="s">
-        <v>288</v>
+      <c r="A35" s="114" t="s">
+        <v>287</v>
       </c>
       <c r="B35" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E35" s="70" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="191"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="193"/>
+        <v>174</v>
+      </c>
+      <c r="G35" s="133"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="220" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="221" t="s">
-        <v>170</v>
+      <c r="A36" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="113" t="s">
+        <v>169</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="195"/>
+        <v>174</v>
+      </c>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="127"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="102" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>169</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="195"/>
+      <c r="F37" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="99" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="195"/>
+        <v>174</v>
+      </c>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="100" t="s">
+      <c r="A39" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100" t="s">
+      <c r="B40" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E40" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
+      <c r="F40" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
     </row>
     <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76"/>
       <c r="B41" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
       <c r="E41" s="77"/>
       <c r="F41" s="77"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="98"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -4716,58 +4775,22 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,7 +4803,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O21" sqref="N21:O21"/>
+      <selection activeCell="C3" sqref="C3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4804,14 +4827,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4832,14 +4855,14 @@
       <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="201" t="s">
+      <c r="G2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="201"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="209"/>
       <c r="N2" t="s">
         <v>77</v>
       </c>
@@ -4852,20 +4875,24 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="208" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="220" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="220" t="s">
+        <v>241</v>
+      </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="197"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="211"/>
       <c r="N3" s="35" t="s">
         <v>32</v>
       </c>
@@ -4892,18 +4919,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
+      <c r="A4" s="208"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="219" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="221" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="220" t="s">
+        <v>241</v>
+      </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="211"/>
       <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
@@ -4930,22 +4961,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="221" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="221" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="197"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="211"/>
       <c r="N5" s="22" t="s">
         <v>82</v>
       </c>
@@ -4972,26 +5003,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="208" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="221" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="221" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="196"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
       <c r="N6" s="22" t="s">
         <v>86</v>
       </c>
@@ -5018,24 +5049,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="221" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="221" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="211"/>
       <c r="N7" s="22" t="s">
         <v>90</v>
       </c>
@@ -5062,26 +5093,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="208" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="221" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="221" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G8" s="210"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="211"/>
       <c r="N8" s="29" t="s">
         <v>94</v>
       </c>
@@ -5108,24 +5139,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="221" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="221" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G9" s="210"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="211"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
       <c r="N9" s="33" t="s">
@@ -5154,27 +5185,27 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="202"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="219" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="221" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="221" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G10" s="210"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="208" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="26"/>
@@ -5182,61 +5213,61 @@
         <v>136</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G11" s="210"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="202"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G12" s="210"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="202"/>
+      <c r="A13" s="208"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G13" s="210"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="215" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="26"/>
@@ -5244,141 +5275,141 @@
         <v>139</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G14" s="210"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="204"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G15" s="210"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="211"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="204"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G16" s="210"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G17" s="210"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G18" s="210"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G19" s="210"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="211"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="205"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G20" s="210"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="211"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="212" t="s">
         <v>122</v>
       </c>
       <c r="B21" s="28"/>
@@ -5386,158 +5417,158 @@
         <v>139</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="196"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G22" s="210"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="28"/>
       <c r="C23" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="196"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G24" s="210"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="196"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="28"/>
       <c r="C26" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="196"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="196"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="211"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="200"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="28"/>
       <c r="C28" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="196"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="211"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -5545,21 +5576,21 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G29" s="210"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="211"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -5567,165 +5598,165 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="211"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="196"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="211"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="211"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="196"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G34" s="210"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="211"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="196"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G35" s="210"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="196"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G36" s="210"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5736,12 +5767,12 @@
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" s="196"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="211"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5752,35 +5783,90 @@
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G38" s="196"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
+        <v>184</v>
+      </c>
+      <c r="G38" s="210"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="211"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="197"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -5797,67 +5883,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5886,20 +5917,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
+      <c r="A1" s="218" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5929,7 +5960,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -5938,24 +5969,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -5964,19 +5995,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5990,19 +6021,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F610F380-6D7E-45CF-9267-47779CF03283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A2BA66-3181-4AD8-AC79-27602A8FEE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1350" windowWidth="21975" windowHeight="14130" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="15150" yWindow="-60" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="304">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -920,6 +920,33 @@
   </si>
   <si>
     <t>130.10.10.10</t>
+  </si>
+  <si>
+    <t>130.10.10.1</t>
+  </si>
+  <si>
+    <t>130.10.10.9</t>
+  </si>
+  <si>
+    <t>130.10.10.2</t>
+  </si>
+  <si>
+    <t>Pozsony_F</t>
+  </si>
+  <si>
+    <t>192.168.5.224</t>
+  </si>
+  <si>
+    <t>192.168.5.225</t>
+  </si>
+  <si>
+    <t>192.168.5.226</t>
+  </si>
+  <si>
+    <t>192.168.5.225 - 192.168.5.254</t>
+  </si>
+  <si>
+    <t>192.168.5.255</t>
   </si>
 </sst>
 </file>
@@ -1097,16 +1124,14 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="238"/>
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -2247,6 +2272,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2280,34 +2314,154 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2334,12 +2488,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2358,19 +2506,40 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2390,147 +2559,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2547,6 +2575,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2559,20 +2593,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2904,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,19 +2953,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="79" t="s">
@@ -2954,34 +2979,36 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="119" t="s">
         <v>238</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
       <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>241</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="J5" s="16"/>
       <c r="K5" s="12"/>
@@ -2994,12 +3021,16 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>241</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -3012,7 +3043,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="118" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24"/>
@@ -3030,7 +3061,7 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="24"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -3046,7 +3077,7 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="118" t="s">
         <v>255</v>
       </c>
       <c r="B9" s="84" t="s">
@@ -3070,7 +3101,7 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="84" t="s">
         <v>258</v>
       </c>
@@ -3083,7 +3114,7 @@
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="84" t="s">
         <v>260</v>
       </c>
@@ -3096,7 +3127,7 @@
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="84" t="s">
         <v>262</v>
       </c>
@@ -3139,7 +3170,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="84" t="s">
         <v>264</v>
       </c>
@@ -3182,7 +3213,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="84"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
@@ -3219,7 +3250,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
@@ -3256,7 +3287,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="84"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
@@ -3293,7 +3324,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="118" t="s">
         <v>266</v>
       </c>
       <c r="B17" s="84" t="s">
@@ -3338,7 +3369,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="84" t="s">
         <v>258</v>
       </c>
@@ -3351,7 +3382,7 @@
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="84" t="s">
         <v>260</v>
       </c>
@@ -3364,7 +3395,7 @@
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="84" t="s">
         <v>262</v>
       </c>
@@ -3377,7 +3408,7 @@
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="84" t="s">
         <v>264</v>
       </c>
@@ -3390,28 +3421,28 @@
       <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="84"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="84"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="84"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="118" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="24"/>
@@ -3420,7 +3451,7 @@
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3636,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,18 +3693,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3694,14 +3725,14 @@
       <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="G2" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="192" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="193"/>
+      <c r="J2" s="130"/>
       <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
@@ -3728,24 +3759,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="131" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="223" t="s">
         <v>250</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>241</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="199"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="136"/>
       <c r="L3" s="13" t="s">
         <v>105</v>
       </c>
@@ -3772,22 +3803,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="223" t="s">
-        <v>251</v>
+      <c r="D4" s="222" t="s">
+        <v>295</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>241</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="202"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="139"/>
       <c r="L4" s="13" t="s">
         <v>106</v>
       </c>
@@ -3814,7 +3845,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>135</v>
@@ -3826,10 +3857,10 @@
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="205"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="142"/>
       <c r="L5" s="13" t="s">
         <v>110</v>
       </c>
@@ -3856,7 +3887,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="167" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="42"/>
@@ -3872,10 +3903,10 @@
       <c r="F6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="171"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="173"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="148"/>
       <c r="L6" s="13" t="s">
         <v>114</v>
       </c>
@@ -3902,7 +3933,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="207"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
         <v>139</v>
@@ -3916,10 +3947,10 @@
       <c r="F7" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="174"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="176"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="151"/>
       <c r="L7" s="102" t="s">
         <v>102</v>
       </c>
@@ -3945,8 +3976,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="177" t="s">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="152" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="45"/>
@@ -3962,21 +3993,37 @@
       <c r="F8" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
+      <c r="L8" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" s="14">
+        <v>15</v>
+      </c>
+      <c r="N8" s="14">
+        <v>30</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
         <v>139</v>
@@ -3996,19 +4043,27 @@
       <c r="J9" s="106"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>174</v>
+      </c>
       <c r="G10" s="107"/>
       <c r="H10" s="108"/>
       <c r="I10" s="107"/>
       <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="143" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="48"/>
@@ -4024,13 +4079,13 @@
       <c r="F11" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="185"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
+      <c r="A12" s="144"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
         <v>137</v>
@@ -4044,10 +4099,10 @@
       <c r="F12" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="186"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="188"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="163"/>
       <c r="L12" s="100"/>
       <c r="M12" s="100"/>
       <c r="N12" s="100"/>
@@ -4058,7 +4113,7 @@
       <c r="S12" s="100"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
         <v>138</v>
@@ -4072,10 +4127,10 @@
       <c r="F13" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="182"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="157"/>
       <c r="L13" s="101"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -4086,7 +4141,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="197" t="s">
         <v>157</v>
       </c>
       <c r="B14" s="51"/>
@@ -4102,10 +4157,10 @@
       <c r="F14" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
       <c r="L14" s="101"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -4116,7 +4171,7 @@
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
+      <c r="A15" s="198"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
         <v>140</v>
@@ -4130,10 +4185,10 @@
       <c r="F15" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
       <c r="L15" s="101"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -4144,7 +4199,7 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="198"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
         <v>141</v>
@@ -4158,10 +4213,10 @@
       <c r="F16" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
       <c r="L16" s="101"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -4172,7 +4227,7 @@
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="198"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
         <v>142</v>
@@ -4186,10 +4241,10 @@
       <c r="F17" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
       <c r="L17" s="101"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -4200,7 +4255,7 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
         <v>143</v>
@@ -4214,13 +4269,13 @@
       <c r="F18" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
         <v>144</v>
@@ -4234,13 +4289,13 @@
       <c r="F19" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
         <v>145</v>
@@ -4254,13 +4309,13 @@
       <c r="F20" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
         <v>146</v>
@@ -4274,13 +4329,13 @@
       <c r="F21" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="171" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="56"/>
@@ -4296,13 +4351,13 @@
       <c r="F22" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="166"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
         <v>140</v>
@@ -4316,13 +4371,13 @@
       <c r="F23" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="145"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="164"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
         <v>141</v>
@@ -4336,13 +4391,13 @@
       <c r="F24" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="145"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="176"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59" t="s">
         <v>142</v>
@@ -4356,13 +4411,13 @@
       <c r="F25" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="144"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="145"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="164"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59" t="s">
         <v>143</v>
@@ -4376,13 +4431,13 @@
       <c r="F26" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="144"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="145"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="172"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
         <v>144</v>
@@ -4396,13 +4451,13 @@
       <c r="F27" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="144"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="145"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="165"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
         <v>145</v>
@@ -4416,13 +4471,13 @@
       <c r="F28" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="148"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="189"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="200" t="s">
         <v>161</v>
       </c>
       <c r="B29" s="62"/>
@@ -4438,13 +4493,13 @@
       <c r="F29" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="149"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="151"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="192"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
         <v>159</v>
@@ -4458,10 +4513,10 @@
       <c r="F30" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="138"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="140"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="183"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="110" t="s">
@@ -4469,21 +4524,21 @@
       </c>
       <c r="B31" s="111"/>
       <c r="C31" s="66" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F31" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="141"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="143"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="186"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
@@ -4496,7 +4551,7 @@
         <v>288</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="68" t="s">
         <v>41</v>
@@ -4504,10 +4559,10 @@
       <c r="F32" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="157"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="159"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="207"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
@@ -4519,8 +4574,8 @@
       <c r="C33" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>284</v>
+      <c r="D33" s="68" t="s">
+        <v>224</v>
       </c>
       <c r="E33" s="69" t="s">
         <v>41</v>
@@ -4528,10 +4583,10 @@
       <c r="F33" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="160"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="162"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="210"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
@@ -4543,8 +4598,8 @@
       <c r="C34" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>285</v>
+      <c r="D34" s="68" t="s">
+        <v>284</v>
       </c>
       <c r="E34" s="70" t="s">
         <v>41</v>
@@ -4552,10 +4607,10 @@
       <c r="F34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="135"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="204"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="114" t="s">
@@ -4567,7 +4622,7 @@
       <c r="C35" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="68" t="s">
         <v>285</v>
       </c>
       <c r="E35" s="70" t="s">
@@ -4576,10 +4631,10 @@
       <c r="F35" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="135"/>
+      <c r="G35" s="202"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="204"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="112" t="s">
@@ -4600,10 +4655,10 @@
       <c r="F36" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="127"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="73" t="s">
@@ -4624,10 +4679,10 @@
       <c r="F37" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
@@ -4648,10 +4703,10 @@
       <c r="F38" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="127"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
@@ -4713,52 +4768,22 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -4775,22 +4800,52 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4802,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E10"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,14 +4882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4855,14 +4910,14 @@
       <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="209"/>
+      <c r="J2" s="216"/>
       <c r="N2" t="s">
         <v>77</v>
       </c>
@@ -4875,24 +4930,24 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="217" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="115" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="220" t="s">
+      <c r="D3" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="220" t="s">
+      <c r="E3" s="116" t="s">
         <v>241</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="212"/>
       <c r="N3" s="35" t="s">
         <v>32</v>
       </c>
@@ -4919,22 +4974,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
+      <c r="A4" s="217"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="221" t="s">
+      <c r="D4" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="220" t="s">
+      <c r="E4" s="116" t="s">
         <v>241</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="212"/>
       <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
@@ -4961,22 +5016,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
+      <c r="A5" s="217"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="212"/>
       <c r="N5" s="22" t="s">
         <v>82</v>
       </c>
@@ -5003,26 +5058,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="217" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="219" t="s">
+      <c r="C6" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="221" t="s">
+      <c r="D6" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="221" t="s">
+      <c r="E6" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="212"/>
       <c r="N6" s="22" t="s">
         <v>86</v>
       </c>
@@ -5049,24 +5104,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="219" t="s">
+      <c r="C7" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="221" t="s">
+      <c r="D7" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="221" t="s">
+      <c r="E7" s="117" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="212"/>
       <c r="N7" s="22" t="s">
         <v>90</v>
       </c>
@@ -5093,26 +5148,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="217" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="212"/>
       <c r="N8" s="29" t="s">
         <v>94</v>
       </c>
@@ -5139,24 +5194,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="221" t="s">
+      <c r="D9" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="117" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="210"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="212"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
       <c r="N9" s="33" t="s">
@@ -5185,27 +5240,27 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="221" t="s">
+      <c r="D10" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="221" t="s">
+      <c r="E10" s="117" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="210"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="217" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="26"/>
@@ -5221,13 +5276,13 @@
       <c r="F11" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="210"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="208"/>
+      <c r="A12" s="217"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
         <v>137</v>
@@ -5241,13 +5296,13 @@
       <c r="F12" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="210"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="212"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24" t="s">
         <v>138</v>
@@ -5261,13 +5316,13 @@
       <c r="F13" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="210"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="212"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="218" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="26"/>
@@ -5283,13 +5338,13 @@
       <c r="F14" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="210"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="212"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="216"/>
+      <c r="A15" s="219"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24" t="s">
         <v>140</v>
@@ -5303,13 +5358,13 @@
       <c r="F15" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="212"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
+      <c r="A16" s="219"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
         <v>141</v>
@@ -5323,13 +5378,13 @@
       <c r="F16" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="210"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="212"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="216"/>
+      <c r="A17" s="219"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24" t="s">
         <v>142</v>
@@ -5343,13 +5398,13 @@
       <c r="F17" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="210"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="212"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="216"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24" t="s">
         <v>143</v>
@@ -5363,13 +5418,13 @@
       <c r="F18" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="210"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="212"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
+      <c r="A19" s="219"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24" t="s">
         <v>144</v>
@@ -5383,13 +5438,13 @@
       <c r="F19" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="210"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="211"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="212"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
+      <c r="A20" s="220"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24" t="s">
         <v>145</v>
@@ -5403,13 +5458,13 @@
       <c r="F20" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="212"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="213" t="s">
         <v>122</v>
       </c>
       <c r="B21" s="28"/>
@@ -5425,13 +5480,13 @@
       <c r="F21" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="210"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="212"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
+      <c r="A22" s="214"/>
       <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
         <v>140</v>
@@ -5445,13 +5500,13 @@
       <c r="F22" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="210"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="212"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="214"/>
       <c r="B23" s="28"/>
       <c r="C23" s="24" t="s">
         <v>141</v>
@@ -5465,13 +5520,13 @@
       <c r="F23" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="212"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
         <v>142</v>
@@ -5485,13 +5540,13 @@
       <c r="F24" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="210"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="212"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="213"/>
+      <c r="A25" s="214"/>
       <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
         <v>143</v>
@@ -5505,13 +5560,13 @@
       <c r="F25" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="212"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="213"/>
+      <c r="A26" s="214"/>
       <c r="B26" s="28"/>
       <c r="C26" s="24" t="s">
         <v>144</v>
@@ -5525,13 +5580,13 @@
       <c r="F26" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="210"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="212"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
         <v>145</v>
@@ -5545,13 +5600,13 @@
       <c r="F27" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="212"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="28"/>
       <c r="C28" s="24" t="s">
         <v>146</v>
@@ -5565,10 +5620,10 @@
       <c r="F28" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="211"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="212"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -5587,10 +5642,10 @@
       <c r="F29" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="210"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="212"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -5609,10 +5664,10 @@
       <c r="F30" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="212"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5633,10 +5688,10 @@
       <c r="F31" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="212"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5657,10 +5712,10 @@
       <c r="F32" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="212"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5681,10 +5736,10 @@
       <c r="F33" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="212"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5705,10 +5760,10 @@
       <c r="F34" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="210"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="212"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5729,10 +5784,10 @@
       <c r="F35" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="210"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="212"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5753,10 +5808,10 @@
       <c r="F36" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="212"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5769,10 +5824,10 @@
       <c r="F37" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="212"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5785,10 +5840,10 @@
       <c r="F38" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="212"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -5799,74 +5854,19 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -5883,12 +5883,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5917,20 +5972,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="221" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A2BA66-3181-4AD8-AC79-27602A8FEE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12152C03-47B6-4E35-AF7F-A2396B1DC724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="-60" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="1830" yWindow="3585" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="304">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Pozsony_Laptop1</t>
   </si>
   <si>
-    <t>Felügyeleti vlan 19</t>
-  </si>
-  <si>
     <t>192.168.5.129</t>
   </si>
   <si>
@@ -947,6 +944,9 @@
   </si>
   <si>
     <t>192.168.5.255</t>
+  </si>
+  <si>
+    <t>Felügyeleti_VLAN_19</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1648,19 +1648,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1755,39 +1742,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1956,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2132,10 +2086,10 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2159,28 +2113,22 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2194,9 +2142,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,15 +2160,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2233,10 +2172,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,7 +2202,7 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2281,7 +2220,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2299,169 +2244,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,13 +2322,19 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,59 +2355,161 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2575,12 +2526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2593,10 +2538,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2953,61 +2895,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="81" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="79" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="76"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="116"/>
+      <c r="B5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="78"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>296</v>
+      <c r="C5" s="81" t="s">
+        <v>295</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="26"/>
       <c r="J5" s="16"/>
@@ -3021,15 +2963,15 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>241</v>
+        <v>296</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>240</v>
       </c>
       <c r="E6" s="26"/>
       <c r="J6" s="17"/>
@@ -3043,7 +2985,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="115" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24"/>
@@ -3061,7 +3003,7 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="24"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -3077,16 +3019,16 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="83" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="26"/>
@@ -3101,348 +3043,348 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="D10" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="116"/>
+      <c r="B11" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="C11" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116"/>
+      <c r="B12" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="J12" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="116"/>
+      <c r="B13" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="J13" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="90">
+        <v>7</v>
+      </c>
+      <c r="L13" s="90">
+        <v>30</v>
+      </c>
+      <c r="M13" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="116"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="26"/>
+      <c r="J14" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="90">
+        <v>5</v>
+      </c>
+      <c r="L14" s="90">
+        <v>30</v>
+      </c>
+      <c r="M14" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="116"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="26"/>
+      <c r="J15" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="90">
+        <v>1</v>
+      </c>
+      <c r="L15" s="90">
+        <v>6</v>
+      </c>
+      <c r="M15" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="116"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="26"/>
+      <c r="J16" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="90">
+        <v>1</v>
+      </c>
+      <c r="L16" s="90">
+        <v>6</v>
+      </c>
+      <c r="M16" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="88" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="85" t="s">
+      <c r="E17" s="26"/>
+      <c r="J17" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="K17" s="90">
+        <v>3</v>
+      </c>
+      <c r="L17" s="90">
+        <v>6</v>
+      </c>
+      <c r="M17" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="N17" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q17" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="R17" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="S17" s="88" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="116"/>
+      <c r="B18" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="116"/>
+      <c r="B19" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="116"/>
+      <c r="B20" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="C20" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="85" t="s">
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="116"/>
+      <c r="B21" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="C21" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="J12" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="84" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="J13" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="92">
-        <v>7</v>
-      </c>
-      <c r="L13" s="92">
-        <v>30</v>
-      </c>
-      <c r="M13" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="90" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="26"/>
-      <c r="J14" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="92">
-        <v>5</v>
-      </c>
-      <c r="L14" s="92">
-        <v>30</v>
-      </c>
-      <c r="M14" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="S14" s="90" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="26"/>
-      <c r="J15" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="92">
-        <v>1</v>
-      </c>
-      <c r="L15" s="92">
-        <v>6</v>
-      </c>
-      <c r="M15" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="90" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="26"/>
-      <c r="J16" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="92">
-        <v>1</v>
-      </c>
-      <c r="L16" s="92">
-        <v>6</v>
-      </c>
-      <c r="M16" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="90" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="J17" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="92">
-        <v>3</v>
-      </c>
-      <c r="L17" s="92">
-        <v>6</v>
-      </c>
-      <c r="M17" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="N17" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q17" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="R17" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="S17" s="90" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
-      <c r="B21" s="84" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>44</v>
-      </c>
       <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="84"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="115" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="24"/>
@@ -3451,20 +3393,20 @@
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="86"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3665,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,18 +3635,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3725,14 +3667,14 @@
       <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="129" t="s">
+      <c r="H2" s="195"/>
+      <c r="I2" s="194" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="130"/>
+      <c r="J2" s="195"/>
       <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
@@ -3759,24 +3701,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="196" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="223" t="s">
-        <v>250</v>
+      <c r="D3" s="114" t="s">
+        <v>249</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="136"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="201"/>
       <c r="L3" s="13" t="s">
         <v>105</v>
       </c>
@@ -3803,22 +3745,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="222" t="s">
-        <v>295</v>
+      <c r="D4" s="113" t="s">
+        <v>294</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="139"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="204"/>
       <c r="L4" s="13" t="s">
         <v>106</v>
       </c>
@@ -3845,22 +3787,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
+      <c r="A5" s="198"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="142"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="207"/>
       <c r="L5" s="13" t="s">
         <v>110</v>
       </c>
@@ -3887,7 +3829,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="192" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="42"/>
@@ -3895,18 +3837,18 @@
         <v>135</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="148"/>
+        <v>173</v>
+      </c>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="173"/>
       <c r="L6" s="13" t="s">
         <v>114</v>
       </c>
@@ -3933,51 +3875,51 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="151"/>
-      <c r="L7" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="174"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="176"/>
+      <c r="L7" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="103">
+      <c r="M7" s="98">
         <v>40</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="98">
         <v>62</v>
       </c>
-      <c r="O7" s="103" t="s">
+      <c r="O7" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="103" t="s">
+      <c r="Q7" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="103" t="s">
+      <c r="R7" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="103" t="s">
+      <c r="S7" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="177" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="45"/>
@@ -3985,20 +3927,20 @@
         <v>135</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+        <v>173</v>
+      </c>
+      <c r="G8" s="189"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
       <c r="L8" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M8" s="14">
         <v>15</v>
@@ -4007,7 +3949,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>48</v>
@@ -4016,54 +3958,54 @@
         <v>49</v>
       </c>
       <c r="R8" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="S8" s="14" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
+      <c r="A9" s="178"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
         <v>139</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="106"/>
+        <v>173</v>
+      </c>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="109"/>
+        <v>173</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="168" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="48"/>
@@ -4071,67 +4013,67 @@
         <v>136</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="158"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="160"/>
+        <v>173</v>
+      </c>
+      <c r="G11" s="183"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="185"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="163"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
+        <v>173</v>
+      </c>
+      <c r="G12" s="186"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="188"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="157"/>
-      <c r="L13" s="101"/>
+        <v>173</v>
+      </c>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="182"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
@@ -4141,7 +4083,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="128" t="s">
         <v>157</v>
       </c>
       <c r="B14" s="51"/>
@@ -4149,19 +4091,19 @@
         <v>139</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="L14" s="101"/>
+        <v>173</v>
+      </c>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
@@ -4171,25 +4113,25 @@
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="198"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="L15" s="101"/>
+        <v>173</v>
+      </c>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -4199,25 +4141,25 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="198"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
         <v>141</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="L16" s="101"/>
+        <v>173</v>
+      </c>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -4227,25 +4169,25 @@
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
         <v>142</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="L17" s="101"/>
+        <v>173</v>
+      </c>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -4255,87 +4197,87 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
+        <v>173</v>
+      </c>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
+        <v>173</v>
+      </c>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
         <v>145</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
+        <v>173</v>
+      </c>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="199"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
         <v>146</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
+        <v>173</v>
+      </c>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="163" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="56"/>
@@ -4343,202 +4285,202 @@
         <v>139</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="56" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="177"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+        <v>173</v>
+      </c>
+      <c r="G22" s="160"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="172"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="174"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="176"/>
+        <v>173</v>
+      </c>
+      <c r="G23" s="150"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="172"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="174"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="176"/>
+        <v>173</v>
+      </c>
+      <c r="G24" s="150"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="172"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="174"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="176"/>
+        <v>173</v>
+      </c>
+      <c r="G25" s="150"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="172"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59" t="s">
         <v>143</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="174"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="176"/>
+        <v>173</v>
+      </c>
+      <c r="G26" s="150"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="174"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="176"/>
+        <v>173</v>
+      </c>
+      <c r="G27" s="150"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="173"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="187"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="189"/>
+        <v>173</v>
+      </c>
+      <c r="G28" s="152"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="200" t="s">
+      <c r="A29" s="131" t="s">
         <v>161</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" s="190"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="192"/>
+        <v>235</v>
+      </c>
+      <c r="G29" s="155"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="157"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="201"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
         <v>159</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="181"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="183"/>
+        <v>173</v>
+      </c>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="111"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="66" t="s">
         <v>148</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" s="65" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="184"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="186"/>
+        <v>173</v>
+      </c>
+      <c r="G31" s="147"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
@@ -4548,21 +4490,21 @@
         <v>168</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="68" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="205"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="207"/>
+        <v>173</v>
+      </c>
+      <c r="G32" s="136"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="138"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
@@ -4572,21 +4514,21 @@
         <v>168</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="208"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="210"/>
+        <v>173</v>
+      </c>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="141"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
@@ -4596,117 +4538,117 @@
         <v>168</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="70" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="202"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="204"/>
+        <v>173</v>
+      </c>
+      <c r="G34" s="133"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="114" t="s">
-        <v>287</v>
+      <c r="A35" s="109" t="s">
+        <v>286</v>
       </c>
       <c r="B35" s="69" t="s">
         <v>168</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D35" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="70" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="202"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="204"/>
+        <v>173</v>
+      </c>
+      <c r="G35" s="133"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="108" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="196"/>
+        <v>173</v>
+      </c>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="127"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="94" t="s">
         <v>169</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D37" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="195"/>
-      <c r="H37" s="195"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="196"/>
+        <v>173</v>
+      </c>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="93" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="196"/>
+        <v>173</v>
+      </c>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="127"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
@@ -4717,13 +4659,13 @@
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
@@ -4739,35 +4681,163 @@
       </c>
       <c r="C40" s="58"/>
       <c r="D40" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
       <c r="J40" s="58"/>
     </row>
-    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="97"/>
+    <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="219"/>
+      <c r="B41" s="219" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I37:J37"/>
@@ -4784,68 +4854,6 @@
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4882,14 +4890,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4910,14 +4918,14 @@
       <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="216" t="s">
+      <c r="G2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216" t="s">
+      <c r="H2" s="209"/>
+      <c r="I2" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="216"/>
+      <c r="J2" s="209"/>
       <c r="N2" t="s">
         <v>77</v>
       </c>
@@ -4930,24 +4938,24 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="208" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="26"/>
-      <c r="C3" s="115" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="116" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="116" t="s">
-        <v>241</v>
+      <c r="C3" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>240</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="212"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="211"/>
       <c r="N3" s="35" t="s">
         <v>32</v>
       </c>
@@ -4974,22 +4982,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="217"/>
+      <c r="A4" s="208"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="117" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="116" t="s">
-        <v>241</v>
+      <c r="E4" s="111" t="s">
+        <v>240</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="212"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="211"/>
       <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
@@ -5016,22 +5024,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="217"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="212"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="211"/>
       <c r="N5" s="22" t="s">
         <v>82</v>
       </c>
@@ -5058,26 +5066,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="208" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="117" t="s">
+      <c r="D6" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="112" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" s="211"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
       <c r="N6" s="22" t="s">
         <v>86</v>
       </c>
@@ -5104,24 +5112,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="117" t="s">
+      <c r="D7" s="112" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="112" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="211"/>
       <c r="N7" s="22" t="s">
         <v>90</v>
       </c>
@@ -5148,26 +5156,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="208" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="26"/>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="117" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="117" t="s">
+      <c r="D8" s="112" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="112" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G8" s="210"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="211"/>
       <c r="N8" s="29" t="s">
         <v>94</v>
       </c>
@@ -5194,24 +5202,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="217"/>
+      <c r="A9" s="208"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="117" t="s">
+      <c r="D9" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="112" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="211"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G9" s="210"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="211"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
       <c r="N9" s="33" t="s">
@@ -5240,27 +5248,27 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="217"/>
+      <c r="A10" s="208"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="115" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="117" t="s">
+      <c r="C10" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="112" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="211"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G10" s="210"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="208" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="26"/>
@@ -5268,61 +5276,61 @@
         <v>136</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="211"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G11" s="210"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="217"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="211"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G12" s="210"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="217"/>
+      <c r="A13" s="208"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="211"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G13" s="210"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="215" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="26"/>
@@ -5330,141 +5338,141 @@
         <v>139</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="211"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G14" s="210"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="219"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="211"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G15" s="210"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="211"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="219"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
         <v>141</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="211"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G16" s="210"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="219"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24" t="s">
         <v>142</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="211"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G17" s="210"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="219"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="211"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G18" s="210"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="219"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="211"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G19" s="210"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="211"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="220"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="211"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G20" s="210"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="211"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213" t="s">
+      <c r="A21" s="212" t="s">
         <v>122</v>
       </c>
       <c r="B21" s="28"/>
@@ -5472,158 +5480,158 @@
         <v>139</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="211"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="211"/>
-      <c r="J21" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G22" s="210"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="211"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="214"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="28"/>
       <c r="C23" s="24" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="211"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="211"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="214"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="211"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G24" s="210"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="211"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="214"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
         <v>143</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="211"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="214"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="28"/>
       <c r="C26" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="211"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="211"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="214"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="211"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="211"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="215"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="28"/>
       <c r="C28" s="24" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="211"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -5634,18 +5642,18 @@
         <v>147</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="211"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G29" s="210"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="211"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -5656,18 +5664,18 @@
         <v>148</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="211"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="211"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5680,18 +5688,18 @@
         <v>148</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="211"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5704,18 +5712,18 @@
         <v>148</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="211"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5728,18 +5736,18 @@
         <v>148</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="211"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="211"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5752,18 +5760,18 @@
         <v>148</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="211"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G34" s="210"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="211"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5776,18 +5784,18 @@
         <v>148</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="211"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G35" s="210"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="211"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5800,18 +5808,18 @@
         <v>148</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="211"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G36" s="210"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5822,12 +5830,12 @@
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="211"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="211"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -5838,12 +5846,12 @@
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" s="211"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="212"/>
+        <v>183</v>
+      </c>
+      <c r="G38" s="210"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="211"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -5854,19 +5862,74 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="212"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -5883,67 +5946,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5972,20 +5980,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
+      <c r="A1" s="218" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="221"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -6015,7 +6023,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -6024,19 +6032,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6050,19 +6058,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6076,19 +6084,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Üzemeltető\vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12152C03-47B6-4E35-AF7F-A2396B1DC724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9699B9D0-20B5-402C-A07C-5C44FD991BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="3585" windowWidth="16860" windowHeight="15345" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21975" windowHeight="14130" activeTab="2" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -405,9 +405,6 @@
     <t xml:space="preserve"> Sopron_S2</t>
   </si>
   <si>
-    <t>Sopron_Access Point</t>
-  </si>
-  <si>
     <t>Sopron_server1</t>
   </si>
   <si>
@@ -947,6 +944,9 @@
   </si>
   <si>
     <t>Felügyeleti_VLAN_19</t>
+  </si>
+  <si>
+    <t>Sopron_Wireless Router</t>
   </si>
 </sst>
 </file>
@@ -2226,6 +2226,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2259,52 +2262,154 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2331,12 +2436,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2355,161 +2454,59 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2526,6 +2523,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2537,9 +2540,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2549,12 +2549,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFD60093"/>
@@ -2895,19 +2895,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="123" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="77" t="s">
@@ -2921,35 +2921,35 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="79" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
-        <v>237</v>
+      <c r="A4" s="117" t="s">
+        <v>236</v>
       </c>
       <c r="B4" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="76"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
+      <c r="B5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="C5" s="81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="26"/>
       <c r="J5" s="16"/>
@@ -2963,15 +2963,15 @@
       <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="26"/>
       <c r="J6" s="17"/>
@@ -2985,7 +2985,7 @@
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="24"/>
@@ -3003,7 +3003,7 @@
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="24"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -3019,14 +3019,14 @@
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>255</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>256</v>
       </c>
       <c r="D9" s="83" t="s">
         <v>49</v>
@@ -3043,12 +3043,12 @@
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="83" t="s">
         <v>257</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>258</v>
       </c>
       <c r="D10" s="83" t="s">
         <v>49</v>
@@ -3056,12 +3056,12 @@
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>259</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>260</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>44</v>
@@ -3069,12 +3069,12 @@
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="83" t="s">
         <v>261</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>262</v>
       </c>
       <c r="D12" s="83" t="s">
         <v>44</v>
@@ -3108,16 +3108,16 @@
         <v>72</v>
       </c>
       <c r="S12" s="89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="83" t="s">
         <v>263</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>264</v>
       </c>
       <c r="D13" s="83" t="s">
         <v>44</v>
@@ -3151,11 +3151,11 @@
         <v>68</v>
       </c>
       <c r="S13" s="88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83"/>
       <c r="D14" s="83"/>
@@ -3188,11 +3188,11 @@
         <v>69</v>
       </c>
       <c r="S14" s="88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="82"/>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -3225,11 +3225,11 @@
         <v>70</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="82"/>
       <c r="C16" s="83"/>
       <c r="D16" s="83"/>
@@ -3262,25 +3262,25 @@
         <v>71</v>
       </c>
       <c r="S16" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>265</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>266</v>
       </c>
       <c r="D17" s="83" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="26"/>
       <c r="J17" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K17" s="90">
         <v>3</v>
@@ -3289,7 +3289,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N17" s="90" t="s">
         <v>43</v>
@@ -3298,25 +3298,25 @@
         <v>54</v>
       </c>
       <c r="P17" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="Q17" s="88" t="s">
+      <c r="R17" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="R17" s="88" t="s">
+      <c r="S17" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="S17" s="88" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="18" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="83" t="s">
         <v>49</v>
@@ -3324,12 +3324,12 @@
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="83" t="s">
         <v>44</v>
@@ -3337,12 +3337,12 @@
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="83" t="s">
         <v>44</v>
@@ -3350,12 +3350,12 @@
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="82" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D21" s="83" t="s">
         <v>44</v>
@@ -3363,28 +3363,28 @@
       <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="82"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="82"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="82"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="116" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="24"/>
@@ -3393,7 +3393,7 @@
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3609,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,18 +3635,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -3667,14 +3667,14 @@
       <c r="F2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="194" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="195"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="128"/>
       <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
@@ -3701,24 +3701,24 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="196" t="s">
-        <v>153</v>
+      <c r="A3" s="129" t="s">
+        <v>152</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="201"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="134"/>
       <c r="L3" s="13" t="s">
         <v>105</v>
       </c>
@@ -3745,22 +3745,22 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="197"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="204"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="137"/>
       <c r="L4" s="13" t="s">
         <v>106</v>
       </c>
@@ -3787,22 +3787,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="198"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="207"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="140"/>
       <c r="L5" s="13" t="s">
         <v>110</v>
       </c>
@@ -3829,26 +3829,26 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
-        <v>156</v>
+      <c r="A6" s="165" t="s">
+        <v>155</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="171"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="173"/>
+        <v>172</v>
+      </c>
+      <c r="G6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="146"/>
       <c r="L6" s="13" t="s">
         <v>114</v>
       </c>
@@ -3875,24 +3875,24 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="193"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="174"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="176"/>
+        <v>172</v>
+      </c>
+      <c r="G7" s="147"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="149"/>
       <c r="L7" s="97" t="s">
         <v>102</v>
       </c>
@@ -3919,28 +3919,28 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="177" t="s">
-        <v>155</v>
+      <c r="A8" s="150" t="s">
+        <v>154</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
+        <v>172</v>
+      </c>
+      <c r="G8" s="162"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
       <c r="L8" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M8" s="14">
         <v>15</v>
@@ -3949,7 +3949,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>48</v>
@@ -3958,26 +3958,26 @@
         <v>49</v>
       </c>
       <c r="R8" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="S8" s="14" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
@@ -3985,19 +3985,19 @@
       <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="102"/>
       <c r="H10" s="103"/>
@@ -4005,46 +4005,46 @@
       <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
-        <v>154</v>
+      <c r="A11" s="141" t="s">
+        <v>153</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="185"/>
+        <v>172</v>
+      </c>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="186"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="188"/>
+        <v>172</v>
+      </c>
+      <c r="G12" s="159"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="161"/>
       <c r="L12" s="95"/>
       <c r="M12" s="95"/>
       <c r="N12" s="95"/>
@@ -4055,24 +4055,24 @@
       <c r="S12" s="95"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="170"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="182"/>
+        <v>172</v>
+      </c>
+      <c r="G13" s="153"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="155"/>
       <c r="L13" s="96"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -4083,21 +4083,21 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
-        <v>157</v>
+      <c r="A14" s="195" t="s">
+        <v>156</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" s="167"/>
       <c r="H14" s="167"/>
@@ -4113,24 +4113,24 @@
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
+        <v>172</v>
+      </c>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
       <c r="L15" s="96"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -4141,24 +4141,24 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
+        <v>172</v>
+      </c>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
       <c r="L16" s="96"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -4169,24 +4169,24 @@
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+        <v>172</v>
+      </c>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
       <c r="L17" s="96"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -4197,475 +4197,475 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+        <v>172</v>
+      </c>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
+        <v>172</v>
+      </c>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
+        <v>172</v>
+      </c>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+        <v>172</v>
+      </c>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="163" t="s">
-        <v>158</v>
+      <c r="A22" s="169" t="s">
+        <v>157</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="56" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="166"/>
+        <v>172</v>
+      </c>
+      <c r="G22" s="175"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="164"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="150"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
+        <v>172</v>
+      </c>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="164"/>
+      <c r="A24" s="170"/>
       <c r="B24" s="58"/>
       <c r="C24" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="150"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
+        <v>172</v>
+      </c>
+      <c r="G24" s="172"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="164"/>
+      <c r="A25" s="170"/>
       <c r="B25" s="58"/>
       <c r="C25" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="150"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
+        <v>172</v>
+      </c>
+      <c r="G25" s="172"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="164"/>
+      <c r="A26" s="170"/>
       <c r="B26" s="58"/>
       <c r="C26" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
+        <v>172</v>
+      </c>
+      <c r="G26" s="172"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="164"/>
+      <c r="A27" s="170"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
+        <v>172</v>
+      </c>
+      <c r="G27" s="172"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="165"/>
+      <c r="A28" s="171"/>
       <c r="B28" s="60"/>
       <c r="C28" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="60" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="154"/>
+        <v>172</v>
+      </c>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="187"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
-        <v>161</v>
+      <c r="A29" s="198" t="s">
+        <v>160</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="157"/>
+        <v>234</v>
+      </c>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="190"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132"/>
+      <c r="A30" s="199"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="146"/>
+        <v>172</v>
+      </c>
+      <c r="G30" s="179"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="181"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="106"/>
       <c r="C31" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E31" s="65" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="149"/>
+        <v>172</v>
+      </c>
+      <c r="G31" s="182"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="184"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="68" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="136"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="138"/>
+        <v>172</v>
+      </c>
+      <c r="G32" s="203"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="205"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E33" s="69" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="141"/>
+        <v>172</v>
+      </c>
+      <c r="G33" s="206"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" s="70" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="135"/>
+        <v>172</v>
+      </c>
+      <c r="G34" s="200"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="202"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D35" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E35" s="70" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="135"/>
+        <v>172</v>
+      </c>
+      <c r="G35" s="200"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="202"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="127"/>
+        <v>172</v>
+      </c>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D37" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E37" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
+        <v>172</v>
+      </c>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E38" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="127"/>
+        <v>172</v>
+      </c>
+      <c r="G38" s="193"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
@@ -4674,20 +4674,20 @@
     </row>
     <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="58"/>
       <c r="D40" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
@@ -4695,23 +4695,23 @@
       <c r="J40" s="58"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="219"/>
-      <c r="B41" s="219" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4725,7 +4725,7 @@
     <row r="43" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4739,7 +4739,7 @@
     <row r="44" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4776,52 +4776,22 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -4838,22 +4808,52 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4865,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27F8DC3-BDE0-43F3-979D-2CCDC5541D2C}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4890,14 +4890,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4918,14 +4918,14 @@
       <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="G2" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="209"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="214"/>
       <c r="N2" t="s">
         <v>77</v>
       </c>
@@ -4938,24 +4938,24 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="215" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="211"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="210"/>
       <c r="N3" s="35" t="s">
         <v>32</v>
       </c>
@@ -4982,22 +4982,22 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="26"/>
       <c r="C4" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="112" t="s">
-        <v>293</v>
-      </c>
       <c r="E4" s="111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="211"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="210"/>
       <c r="N4" s="22" t="s">
         <v>78</v>
       </c>
@@ -5024,22 +5024,22 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="26"/>
       <c r="C5" s="110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="211"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="210"/>
       <c r="N5" s="22" t="s">
         <v>82</v>
       </c>
@@ -5066,26 +5066,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="215" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="112" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G6" s="209"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="210"/>
       <c r="N6" s="22" t="s">
         <v>86</v>
       </c>
@@ -5112,24 +5112,24 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
+      <c r="A7" s="215"/>
       <c r="B7" s="26"/>
       <c r="C7" s="110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="112" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G7" s="209"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="210"/>
       <c r="N7" s="22" t="s">
         <v>90</v>
       </c>
@@ -5156,26 +5156,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="215" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="112" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G8" s="209"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="210"/>
       <c r="N8" s="29" t="s">
         <v>94</v>
       </c>
@@ -5202,24 +5202,24 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="26"/>
       <c r="C9" s="110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="112" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="210"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G9" s="209"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="210"/>
       <c r="L9" s="31"/>
       <c r="M9" s="32"/>
       <c r="N9" s="33" t="s">
@@ -5248,688 +5248,633 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="208"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="26"/>
       <c r="C10" s="110" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="112" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="210"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G10" s="209"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="215" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="210"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G11" s="209"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="210"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="208"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="26"/>
       <c r="C12" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="210"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G12" s="209"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="210"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="26"/>
       <c r="C13" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="210"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G13" s="209"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="210"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="216" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="210"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G14" s="209"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="209"/>
+      <c r="J14" s="210"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="216"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G15" s="209"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="210"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G16" s="209"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="216"/>
+      <c r="A17" s="217"/>
       <c r="B17" s="26"/>
       <c r="C17" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="210"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G17" s="209"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="216"/>
+      <c r="A18" s="217"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="210"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G18" s="209"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="210"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="26"/>
       <c r="C19" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="210"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G19" s="209"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="210"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G20" s="209"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="210"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="211" t="s">
         <v>122</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="210"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G21" s="209"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="210"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="28"/>
       <c r="C22" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="210"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="210"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="28"/>
       <c r="C23" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G23" s="209"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="210"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="28"/>
       <c r="C24" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24" s="210"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G24" s="209"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="210"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="213"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="28"/>
       <c r="C25" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G25" s="209"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="210"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="213"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="28"/>
       <c r="C26" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="210"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G26" s="209"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="210"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="28"/>
       <c r="C27" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G27" s="209"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="210"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="28"/>
       <c r="C28" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G28" s="209"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="210"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="210"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G29" s="209"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="210"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="211"/>
+      <c r="F30" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="209"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="210"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+      <c r="F31" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="209"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="210"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="211"/>
+      <c r="F32" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="209"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="210"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="211"/>
+      <c r="F33" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="209"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="210"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="210"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="211"/>
+      <c r="F34" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="209"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="210"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="210"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="211"/>
+      <c r="F35" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="209"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="210"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E36" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="211"/>
+      <c r="F36" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="209"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="210"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G37" s="209"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="210"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="211"/>
+        <v>182</v>
+      </c>
+      <c r="G38" s="209"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="210"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="211"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -5946,12 +5891,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5980,20 +5980,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="218" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
+      <c r="A1" s="219" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -6023,7 +6023,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="14">
         <v>2</v>
@@ -6032,24 +6032,24 @@
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="14">
         <v>2</v>
@@ -6058,19 +6058,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6084,19 +6084,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395BA88-D7C9-415C-BCC6-EA1FFD3EDAEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41862206-BEF5-4FEB-911D-8ACA0433E1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21975" windowHeight="14130" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="307">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -923,10 +923,6 @@
   </si>
   <si>
     <t>Gyor_SW3</t>
-  </si>
-  <si>
-    <t>255.255.255.224
-0.0.0.7</t>
   </si>
   <si>
     <t>Gyor_PR2</t>
@@ -2151,309 +2147,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2464,30 +2157,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2498,14 +2167,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2517,18 +2180,351 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2861,7 +2857,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2885,20 +2881,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -2907,7 +2903,7 @@
       <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="191" t="s">
+      <c r="E2" s="122" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="61" t="s">
@@ -2915,816 +2911,815 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="192"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="200"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
-      <c r="B5" s="201" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="202"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="93"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="198"/>
-      <c r="B6" s="201" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="207" t="s">
+      <c r="D6" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="207"/>
-      <c r="F6" s="202"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="93"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="205"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="187"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="207"/>
-      <c r="F9" s="202"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="93"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="206" t="s">
+      <c r="A10" s="112"/>
+      <c r="B10" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="207" t="s">
+      <c r="C10" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="207" t="s">
+      <c r="D10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="207"/>
-      <c r="F10" s="202"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
-      <c r="B11" s="206" t="s">
+      <c r="A11" s="112"/>
+      <c r="B11" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="207" t="s">
+      <c r="D11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="207"/>
-      <c r="F11" s="202"/>
-      <c r="I11" s="195" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="93"/>
+      <c r="I11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="196" t="s">
+      <c r="J11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="196" t="s">
+      <c r="K11" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="196" t="s">
+      <c r="L11" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="196" t="s">
+      <c r="M11" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="196" t="s">
+      <c r="N11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="196" t="s">
+      <c r="O11" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="196" t="s">
+      <c r="P11" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="196" t="s">
+      <c r="Q11" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="197" t="s">
+      <c r="R11" s="107" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="198"/>
-      <c r="B12" s="206" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="207" t="s">
+      <c r="C12" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="207" t="s">
+      <c r="D12" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="207"/>
-      <c r="F12" s="202"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="213"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="93"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="108"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="198"/>
-      <c r="B13" s="206" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="207" t="s">
+      <c r="C13" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="207" t="s">
+      <c r="D13" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="207"/>
-      <c r="F13" s="202"/>
-      <c r="I13" s="193" t="s">
+      <c r="E13" s="96"/>
+      <c r="F13" s="93"/>
+      <c r="I13" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="193">
+      <c r="J13" s="102">
         <v>7</v>
       </c>
-      <c r="K13" s="193">
+      <c r="K13" s="102">
         <v>30</v>
       </c>
-      <c r="L13" s="215" t="s">
+      <c r="L13" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="193" t="s">
+      <c r="M13" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="216" t="s">
+      <c r="N13" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="215" t="s">
+      <c r="O13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="215" t="s">
+      <c r="P13" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="215" t="s">
+      <c r="Q13" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="215" t="s">
+      <c r="R13" s="103" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="198"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="202"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="215"/>
-      <c r="R14" s="215"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="93"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="198"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="202"/>
-      <c r="I15" s="193" t="s">
+      <c r="A15" s="112"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="93"/>
+      <c r="I15" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="193">
+      <c r="J15" s="102">
         <v>5</v>
       </c>
-      <c r="K15" s="193">
+      <c r="K15" s="102">
         <v>30</v>
       </c>
-      <c r="L15" s="215" t="s">
+      <c r="L15" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="193" t="s">
+      <c r="M15" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="216" t="s">
+      <c r="N15" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="215" t="s">
+      <c r="O15" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="215" t="s">
+      <c r="P15" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="215" t="s">
+      <c r="Q15" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="215" t="s">
+      <c r="R15" s="103" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="198"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="202"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="193"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="215"/>
-      <c r="R16" s="215"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="93"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="207" t="s">
+      <c r="C17" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="207" t="s">
+      <c r="D17" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="207"/>
-      <c r="F17" s="202"/>
-      <c r="I17" s="193" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="93"/>
+      <c r="I17" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="193">
+      <c r="J17" s="102">
         <v>1</v>
       </c>
-      <c r="K17" s="193">
+      <c r="K17" s="102">
         <v>6</v>
       </c>
-      <c r="L17" s="215" t="s">
+      <c r="L17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="193" t="s">
+      <c r="M17" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="216" t="s">
+      <c r="N17" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="215" t="s">
+      <c r="O17" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="215" t="s">
+      <c r="P17" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="215" t="s">
+      <c r="Q17" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="215" t="s">
+      <c r="R17" s="103" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="206" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="207" t="s">
+      <c r="C18" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="207" t="s">
+      <c r="D18" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="207"/>
-      <c r="F18" s="202"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="216"/>
-      <c r="O18" s="215"/>
-      <c r="P18" s="215"/>
-      <c r="Q18" s="215"/>
-      <c r="R18" s="215"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="93"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="206" t="s">
+      <c r="A19" s="112"/>
+      <c r="B19" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="C19" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="207" t="s">
+      <c r="D19" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="207"/>
-      <c r="F19" s="202"/>
-      <c r="I19" s="193" t="s">
+      <c r="E19" s="96"/>
+      <c r="F19" s="93"/>
+      <c r="I19" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="193">
+      <c r="J19" s="102">
         <v>1</v>
       </c>
-      <c r="K19" s="193">
+      <c r="K19" s="102">
         <v>6</v>
       </c>
-      <c r="L19" s="215" t="s">
+      <c r="L19" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="193" t="s">
+      <c r="M19" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="216" t="s">
+      <c r="N19" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="215" t="s">
+      <c r="O19" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="215" t="s">
+      <c r="P19" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="215" t="s">
+      <c r="Q19" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="215" t="s">
+      <c r="R19" s="103" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
-      <c r="B20" s="206" t="s">
+      <c r="A20" s="112"/>
+      <c r="B20" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="207" t="s">
+      <c r="D20" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="207"/>
-      <c r="F20" s="202"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="215"/>
-      <c r="R20" s="215"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="93"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
-      <c r="B21" s="206" t="s">
+      <c r="A21" s="112"/>
+      <c r="B21" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="D21" s="207" t="s">
+      <c r="D21" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="207"/>
-      <c r="F21" s="202"/>
-      <c r="I21" s="193" t="s">
+      <c r="E21" s="96"/>
+      <c r="F21" s="93"/>
+      <c r="I21" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="J21" s="193">
+      <c r="J21" s="102">
         <v>3</v>
       </c>
-      <c r="K21" s="193">
-        <v>30</v>
-      </c>
-      <c r="L21" s="215" t="s">
+      <c r="K21" s="102">
+        <v>6</v>
+      </c>
+      <c r="L21" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="M21" s="193" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="216" t="s">
+      <c r="M21" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="P21" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q21" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="R21" s="103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="93"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="112"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="93"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="N25" s="102"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="N26" s="102"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="O21" s="215" t="s">
-        <v>262</v>
-      </c>
-      <c r="P21" s="215" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q21" s="215" t="s">
-        <v>264</v>
-      </c>
-      <c r="R21" s="215" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="202"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="216"/>
-      <c r="O22" s="215"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="215"/>
-      <c r="R22" s="215"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="202"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="198"/>
-      <c r="B24" s="206"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="208" t="s">
-        <v>289</v>
-      </c>
-      <c r="B25" s="206"/>
-      <c r="C25" s="207" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="207" t="s">
+      <c r="B29" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="207" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="N25" s="193"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="208" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26" s="207"/>
-      <c r="C26" s="207" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="207" t="s">
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="97" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="207" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="N26" s="193"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="208" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207" t="s">
-        <v>292</v>
-      </c>
-      <c r="D27" s="207" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="207" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="207" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="208" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="207" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="207" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="207" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="208" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="207" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="207" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="207" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="208" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="207" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="207" t="s">
-        <v>304</v>
-      </c>
-      <c r="D30" s="207" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="208" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="207" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="207" t="s">
+      <c r="E31" s="96"/>
+      <c r="F31" s="96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="207" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="208" t="s">
+      <c r="B32" s="96"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="207"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="210"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="208" t="s">
-        <v>307</v>
-      </c>
-      <c r="B33" s="211"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="210"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="208" t="s">
+      <c r="A34" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="211"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="210"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="208" t="s">
+      <c r="A35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="211"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="210"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="208" t="s">
+      <c r="A36" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="210"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="208" t="s">
+      <c r="A37" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="211"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="210"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="208" t="s">
+      <c r="A38" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="211"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="210"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="99"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="211"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="210"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="208" t="s">
+      <c r="A40" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="211"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="210"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
@@ -3734,36 +3729,37 @@
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3800,18 +3796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3832,14 +3828,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="162" t="s">
+      <c r="G2" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="162" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="163"/>
+      <c r="J2" s="125"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3866,7 +3862,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="126" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="21"/>
@@ -3880,10 +3876,10 @@
         <v>224</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="169"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
       <c r="L3" s="3" t="s">
         <v>90</v>
       </c>
@@ -3910,7 +3906,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>118</v>
@@ -3922,10 +3918,10 @@
         <v>224</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="172"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="134"/>
       <c r="L4" s="3" t="s">
         <v>91</v>
       </c>
@@ -3952,7 +3948,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>119</v>
@@ -3964,10 +3960,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="175"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="137"/>
       <c r="L5" s="3" t="s">
         <v>95</v>
       </c>
@@ -3994,7 +3990,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="162" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="26"/>
@@ -4010,10 +4006,10 @@
       <c r="F6" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="143"/>
       <c r="L6" s="3" t="s">
         <v>99</v>
       </c>
@@ -4040,7 +4036,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>123</v>
@@ -4054,10 +4050,10 @@
       <c r="F7" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="146"/>
       <c r="L7" s="67" t="s">
         <v>87</v>
       </c>
@@ -4084,7 +4080,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="147" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="29"/>
@@ -4100,10 +4096,10 @@
       <c r="F8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="157"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
       <c r="L8" s="3" t="s">
         <v>281</v>
       </c>
@@ -4130,7 +4126,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>123</v>
@@ -4150,7 +4146,7 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>269</v>
@@ -4170,7 +4166,7 @@
       <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="138" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="32"/>
@@ -4186,13 +4182,13 @@
       <c r="F11" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="155"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
         <v>121</v>
@@ -4206,10 +4202,10 @@
       <c r="F12" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="158"/>
       <c r="L12" s="65"/>
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
@@ -4220,7 +4216,7 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34" t="s">
         <v>122</v>
@@ -4234,10 +4230,10 @@
       <c r="F13" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="152"/>
       <c r="L13" s="66"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4248,7 +4244,7 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="192" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="35"/>
@@ -4264,10 +4260,10 @@
       <c r="F14" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
       <c r="L14" s="66"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -4278,7 +4274,7 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36" t="s">
         <v>124</v>
@@ -4292,10 +4288,10 @@
       <c r="F15" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
       <c r="L15" s="66"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -4306,7 +4302,7 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
         <v>125</v>
@@ -4320,10 +4316,10 @@
       <c r="F16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
       <c r="L16" s="66"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4334,7 +4330,7 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36" t="s">
         <v>126</v>
@@ -4348,10 +4344,10 @@
       <c r="F17" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
       <c r="L17" s="66"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -4362,7 +4358,7 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
+      <c r="A18" s="193"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36" t="s">
         <v>127</v>
@@ -4376,13 +4372,13 @@
       <c r="F18" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36" t="s">
         <v>128</v>
@@ -4396,13 +4392,13 @@
       <c r="F19" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36" t="s">
         <v>129</v>
@@ -4416,13 +4412,13 @@
       <c r="F20" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="38"/>
       <c r="C21" s="39" t="s">
         <v>130</v>
@@ -4436,13 +4432,13 @@
       <c r="F21" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
     </row>
     <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="166" t="s">
         <v>142</v>
       </c>
       <c r="B22" s="40"/>
@@ -4458,13 +4454,13 @@
       <c r="F22" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="134"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="173"/>
     </row>
     <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="167"/>
       <c r="B23" s="42"/>
       <c r="C23" s="43" t="s">
         <v>124</v>
@@ -4478,13 +4474,13 @@
       <c r="F23" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="167"/>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
         <v>125</v>
@@ -4498,13 +4494,13 @@
       <c r="F24" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
+      <c r="A25" s="167"/>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
         <v>126</v>
@@ -4518,13 +4514,13 @@
       <c r="F25" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
+      <c r="A26" s="167"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
         <v>127</v>
@@ -4538,13 +4534,13 @@
       <c r="F26" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="119"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
+      <c r="A27" s="167"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
         <v>128</v>
@@ -4558,13 +4554,13 @@
       <c r="F27" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="119"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="133"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="44"/>
       <c r="C28" s="45" t="s">
         <v>129</v>
@@ -4578,13 +4574,13 @@
       <c r="F28" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="122"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="184"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="195" t="s">
         <v>145</v>
       </c>
       <c r="B29" s="46"/>
@@ -4600,13 +4596,13 @@
       <c r="F29" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="125"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="47"/>
       <c r="C30" s="48" t="s">
         <v>143</v>
@@ -4620,10 +4616,10 @@
       <c r="F30" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="112"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="114"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="75" t="s">
@@ -4642,10 +4638,10 @@
       <c r="F31" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="117"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="181"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="53" t="s">
@@ -4666,10 +4662,10 @@
       <c r="F32" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="106"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="202"/>
     </row>
     <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
@@ -4690,10 +4686,10 @@
       <c r="F33" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="109"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="205"/>
     </row>
     <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
@@ -4714,10 +4710,10 @@
       <c r="F34" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="103"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="199"/>
     </row>
     <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="79" t="s">
@@ -4738,10 +4734,10 @@
       <c r="F35" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="103"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="199"/>
     </row>
     <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
@@ -4762,10 +4758,10 @@
       <c r="F36" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="191"/>
     </row>
     <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57" t="s">
@@ -4786,10 +4782,10 @@
       <c r="F37" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="191"/>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
@@ -4810,10 +4806,10 @@
       <c r="F38" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="95"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
@@ -4941,52 +4937,22 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
@@ -5003,22 +4969,52 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5055,14 +5051,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5083,14 +5079,14 @@
       <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="177" t="s">
+      <c r="G2" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177" t="s">
+      <c r="H2" s="211"/>
+      <c r="I2" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="177"/>
+      <c r="J2" s="211"/>
       <c r="N2" t="s">
         <v>62</v>
       </c>
@@ -5103,7 +5099,7 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="212" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="10"/>
@@ -5117,10 +5113,10 @@
         <v>224</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="179"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
       <c r="N3" s="19" t="s">
         <v>17</v>
       </c>
@@ -5147,7 +5143,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="10"/>
       <c r="C4" s="80" t="s">
         <v>276</v>
@@ -5159,10 +5155,10 @@
         <v>224</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="179"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="207"/>
       <c r="N4" s="7" t="s">
         <v>63</v>
       </c>
@@ -5189,7 +5185,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="10"/>
       <c r="C5" s="80" t="s">
         <v>119</v>
@@ -5201,10 +5197,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="179"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="207"/>
       <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
@@ -5231,7 +5227,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="212" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="10"/>
@@ -5247,10 +5243,10 @@
       <c r="F6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="178"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="207"/>
       <c r="N6" s="7" t="s">
         <v>71</v>
       </c>
@@ -5277,7 +5273,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="10"/>
       <c r="C7" s="80" t="s">
         <v>123</v>
@@ -5291,10 +5287,10 @@
       <c r="F7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="178"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="206"/>
+      <c r="J7" s="207"/>
       <c r="N7" s="7" t="s">
         <v>75</v>
       </c>
@@ -5321,7 +5317,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="212" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="10"/>
@@ -5337,10 +5333,10 @@
       <c r="F8" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="178"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="207"/>
       <c r="N8" s="13" t="s">
         <v>79</v>
       </c>
@@ -5367,7 +5363,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="10"/>
       <c r="C9" s="80" t="s">
         <v>123</v>
@@ -5381,10 +5377,10 @@
       <c r="F9" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="178"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="207"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="17" t="s">
@@ -5413,7 +5409,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="10"/>
       <c r="C10" s="80" t="s">
         <v>269</v>
@@ -5427,13 +5423,13 @@
       <c r="F10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="178"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="207"/>
     </row>
     <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="212" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="10"/>
@@ -5449,13 +5445,13 @@
       <c r="F11" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="207"/>
     </row>
     <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="176"/>
+      <c r="A12" s="212"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>121</v>
@@ -5469,13 +5465,13 @@
       <c r="F12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="178"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="207"/>
     </row>
     <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="176"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
         <v>122</v>
@@ -5489,13 +5485,13 @@
       <c r="F13" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="207"/>
     </row>
     <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="213" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="10"/>
@@ -5511,13 +5507,13 @@
       <c r="F14" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="178"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="207"/>
     </row>
     <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>124</v>
@@ -5531,13 +5527,13 @@
       <c r="F15" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="178"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="207"/>
     </row>
     <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>125</v>
@@ -5551,13 +5547,13 @@
       <c r="F16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="178"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
+      <c r="A17" s="214"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>126</v>
@@ -5571,13 +5567,13 @@
       <c r="F17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="178"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="207"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
+      <c r="A18" s="214"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>127</v>
@@ -5591,13 +5587,13 @@
       <c r="F18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="178"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="207"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>128</v>
@@ -5611,13 +5607,13 @@
       <c r="F19" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="178"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>129</v>
@@ -5631,13 +5627,13 @@
       <c r="F20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="178"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="207"/>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="208" t="s">
         <v>107</v>
       </c>
       <c r="B21" s="12"/>
@@ -5653,13 +5649,13 @@
       <c r="F21" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="12"/>
       <c r="C22" s="9" t="s">
         <v>124</v>
@@ -5673,13 +5669,13 @@
       <c r="F22" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="178"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="12"/>
       <c r="C23" s="9" t="s">
         <v>125</v>
@@ -5693,13 +5689,13 @@
       <c r="F23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="178"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="207"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="209"/>
       <c r="B24" s="12"/>
       <c r="C24" s="9" t="s">
         <v>126</v>
@@ -5713,13 +5709,13 @@
       <c r="F24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="178"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="209"/>
       <c r="B25" s="12"/>
       <c r="C25" s="9" t="s">
         <v>127</v>
@@ -5733,13 +5729,13 @@
       <c r="F25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="178"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="207"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="209"/>
       <c r="B26" s="12"/>
       <c r="C26" s="9" t="s">
         <v>128</v>
@@ -5753,13 +5749,13 @@
       <c r="F26" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="178"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="207"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="A27" s="209"/>
       <c r="B27" s="12"/>
       <c r="C27" s="9" t="s">
         <v>129</v>
@@ -5773,13 +5769,13 @@
       <c r="F27" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="178"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="207"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
+      <c r="A28" s="210"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9" t="s">
         <v>130</v>
@@ -5793,10 +5789,10 @@
       <c r="F28" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="178"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="207"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -5815,10 +5811,10 @@
       <c r="F29" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="178"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -5837,10 +5833,10 @@
       <c r="F30" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="178"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="207"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -5861,10 +5857,10 @@
       <c r="F31" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="178"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -5885,10 +5881,10 @@
       <c r="F32" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="178"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="207"/>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -5909,10 +5905,10 @@
       <c r="F33" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="178"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="207"/>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5933,10 +5929,10 @@
       <c r="F34" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="178"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="207"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -5957,10 +5953,10 @@
       <c r="F35" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="178"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="207"/>
     </row>
     <row r="36" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -5981,10 +5977,10 @@
       <c r="F36" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="178"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="207"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -5997,10 +5993,10 @@
       <c r="F37" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="178"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="207"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -6013,10 +6009,10 @@
       <c r="F38" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="178"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="207"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -6027,74 +6023,19 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="206"/>
+      <c r="J39" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -6111,12 +6052,67 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,20 +6141,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="186"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/IP_cim_kiosztas.xlsx
+++ b/IP_cim_kiosztas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibi\Documents\GitHub\Uzemelteto_vizsgaremek_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Vizsgaremek\Uzemelteto_vizsgaremek_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41862206-BEF5-4FEB-911D-8ACA0433E1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4FACB-226C-42EB-BFED-CF329E09597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21975" windowHeight="14130" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{5DEB228F-9A24-4144-85FF-8E6948A8BA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Központi Iroda" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="308">
   <si>
     <t>Központi Iroda</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Gyor_WiFi2</t>
+  </si>
+  <si>
+    <t>Pozsony_VLAN_19</t>
   </si>
 </sst>
 </file>
@@ -2181,33 +2184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,154 +2223,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2421,6 +2322,12 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2439,59 +2346,161 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2507,12 +2516,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2856,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00720853-46FD-4EE1-97EA-B1AFFEF5B41E}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2881,20 +2884,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -2903,7 +2906,7 @@
       <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="113" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="61" t="s">
@@ -2911,19 +2914,19 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="103" t="s">
         <v>221</v>
       </c>
       <c r="B4" s="90" t="s">
@@ -2935,7 +2938,7 @@
       <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="92" t="s">
         <v>236</v>
       </c>
@@ -2961,7 +2964,7 @@
       <c r="S5" s="86"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="92" t="s">
         <v>237</v>
       </c>
@@ -2987,7 +2990,7 @@
       <c r="S6" s="86"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="102" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="94"/>
@@ -3009,7 +3012,7 @@
       <c r="S7" s="86"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="94"/>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
@@ -3029,7 +3032,7 @@
       <c r="S8" s="86"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="102" t="s">
         <v>238</v>
       </c>
       <c r="B9" s="95" t="s">
@@ -3057,7 +3060,7 @@
       <c r="S9" s="86"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="95" t="s">
         <v>241</v>
       </c>
@@ -3071,7 +3074,7 @@
       <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="95" t="s">
         <v>243</v>
       </c>
@@ -3083,39 +3086,39 @@
       </c>
       <c r="E11" s="96"/>
       <c r="F11" s="93"/>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="105" t="s">
+      <c r="L11" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="105" t="s">
+      <c r="O11" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="105" t="s">
+      <c r="P11" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="105" t="s">
+      <c r="Q11" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="107" t="s">
+      <c r="R11" s="122" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="95" t="s">
         <v>245</v>
       </c>
@@ -3127,19 +3130,19 @@
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="93"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="108"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="123"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="95" t="s">
         <v>247</v>
       </c>
@@ -3151,113 +3154,113 @@
       </c>
       <c r="E13" s="96"/>
       <c r="F13" s="93"/>
-      <c r="I13" s="102" t="s">
+      <c r="I13" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="102">
+      <c r="J13" s="116">
         <v>7</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="116">
         <v>30</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="102" t="s">
+      <c r="M13" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="103" t="s">
+      <c r="O13" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="103" t="s">
+      <c r="P13" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="103" t="s">
+      <c r="Q13" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="103" t="s">
+      <c r="R13" s="115" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>
       <c r="F14" s="93"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
       <c r="F15" s="93"/>
-      <c r="I15" s="102" t="s">
+      <c r="I15" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="102">
+      <c r="J15" s="116">
         <v>5</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="116">
         <v>30</v>
       </c>
-      <c r="L15" s="103" t="s">
+      <c r="L15" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="102" t="s">
+      <c r="M15" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="103" t="s">
+      <c r="O15" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="103" t="s">
+      <c r="P15" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="103" t="s">
+      <c r="Q15" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="103" t="s">
+      <c r="R15" s="115" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
       <c r="F16" s="93"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="102" t="s">
         <v>249</v>
       </c>
       <c r="B17" s="95" t="s">
@@ -3271,39 +3274,39 @@
       </c>
       <c r="E17" s="96"/>
       <c r="F17" s="93"/>
-      <c r="I17" s="102" t="s">
+      <c r="I17" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="102">
+      <c r="J17" s="116">
         <v>1</v>
       </c>
-      <c r="K17" s="102">
+      <c r="K17" s="116">
         <v>6</v>
       </c>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="102" t="s">
+      <c r="M17" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="104" t="s">
+      <c r="N17" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="103" t="s">
+      <c r="P17" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="103" t="s">
+      <c r="Q17" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="103" t="s">
+      <c r="R17" s="115" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="95" t="s">
         <v>241</v>
       </c>
@@ -3315,19 +3318,19 @@
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="93"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
+      <c r="A19" s="103"/>
       <c r="B19" s="95" t="s">
         <v>243</v>
       </c>
@@ -3339,39 +3342,39 @@
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="93"/>
-      <c r="I19" s="102" t="s">
+      <c r="I19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="102">
+      <c r="J19" s="116">
         <v>1</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="116">
         <v>6</v>
       </c>
-      <c r="L19" s="103" t="s">
+      <c r="L19" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="102" t="s">
+      <c r="M19" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="104" t="s">
+      <c r="N19" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="103" t="s">
+      <c r="O19" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="103" t="s">
+      <c r="P19" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="103" t="s">
+      <c r="Q19" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="103" t="s">
+      <c r="R19" s="115" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="95" t="s">
         <v>245</v>
       </c>
@@ -3383,19 +3386,19 @@
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="93"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="95" t="s">
         <v>247</v>
       </c>
@@ -3407,57 +3410,57 @@
       </c>
       <c r="E21" s="96"/>
       <c r="F21" s="93"/>
-      <c r="I21" s="102" t="s">
+      <c r="I21" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="J21" s="102">
+      <c r="J21" s="116">
         <v>3</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="116">
         <v>6</v>
       </c>
-      <c r="L21" s="103" t="s">
+      <c r="L21" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="M21" s="102" t="s">
+      <c r="M21" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="104" t="s">
+      <c r="N21" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="103" t="s">
+      <c r="O21" s="115" t="s">
         <v>262</v>
       </c>
-      <c r="P21" s="103" t="s">
+      <c r="P21" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="Q21" s="103" t="s">
+      <c r="Q21" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="R21" s="103" t="s">
+      <c r="R21" s="115" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="95"/>
       <c r="C22" s="96"/>
       <c r="D22" s="96"/>
       <c r="E22" s="96"/>
       <c r="F22" s="93"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="95"/>
       <c r="C23" s="96"/>
       <c r="D23" s="96"/>
@@ -3465,7 +3468,7 @@
       <c r="F23" s="93"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
       <c r="D24" s="96"/>
@@ -3489,7 +3492,7 @@
       <c r="F25" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="N25" s="102"/>
+      <c r="N25" s="116"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
@@ -3508,7 +3511,7 @@
       <c r="F26" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="N26" s="102"/>
+      <c r="N26" s="116"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="97" t="s">
@@ -3690,36 +3693,29 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
@@ -3734,32 +3730,39 @@
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3770,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B769BC50-9623-4726-8971-E5FD68E08F76}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,18 +3799,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3828,14 +3831,14 @@
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="124" t="s">
+      <c r="H2" s="193"/>
+      <c r="I2" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="125"/>
+      <c r="J2" s="193"/>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3862,7 +3865,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="194" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="21"/>
@@ -3876,10 +3879,10 @@
         <v>224</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="199"/>
       <c r="L3" s="3" t="s">
         <v>90</v>
       </c>
@@ -3906,7 +3909,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
         <v>118</v>
@@ -3918,10 +3921,10 @@
         <v>224</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="134"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="202"/>
       <c r="L4" s="3" t="s">
         <v>91</v>
       </c>
@@ -3948,7 +3951,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>119</v>
@@ -3960,10 +3963,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="205"/>
       <c r="L5" s="3" t="s">
         <v>95</v>
       </c>
@@ -3990,7 +3993,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="190" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="26"/>
@@ -4006,10 +4009,10 @@
       <c r="F6" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="143"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="171"/>
       <c r="L6" s="3" t="s">
         <v>99</v>
       </c>
@@ -4036,7 +4039,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="163"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28" t="s">
         <v>123</v>
@@ -4050,10 +4053,10 @@
       <c r="F7" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="146"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="174"/>
       <c r="L7" s="67" t="s">
         <v>87</v>
       </c>
@@ -4080,7 +4083,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="175" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="29"/>
@@ -4096,10 +4099,10 @@
       <c r="F8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="160"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188"/>
       <c r="L8" s="3" t="s">
         <v>281</v>
       </c>
@@ -4126,7 +4129,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>123</v>
@@ -4146,7 +4149,7 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="149"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>269</v>
@@ -4166,7 +4169,7 @@
       <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="166" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="32"/>
@@ -4182,13 +4185,13 @@
       <c r="F11" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="155"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="183"/>
     </row>
     <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33" t="s">
         <v>121</v>
@@ -4202,10 +4205,10 @@
       <c r="F12" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="158"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="186"/>
       <c r="L12" s="65"/>
       <c r="M12" s="65"/>
       <c r="N12" s="65"/>
@@ -4216,7 +4219,7 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="140"/>
+      <c r="A13" s="168"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34" t="s">
         <v>122</v>
@@ -4230,10 +4233,10 @@
       <c r="F13" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="150"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="152"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="180"/>
       <c r="L13" s="66"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4244,7 +4247,7 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="126" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="35"/>
@@ -4260,10 +4263,10 @@
       <c r="F14" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
       <c r="L14" s="66"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -4274,7 +4277,7 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36" t="s">
         <v>124</v>
@@ -4288,10 +4291,10 @@
       <c r="F15" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
       <c r="L15" s="66"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -4302,7 +4305,7 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
         <v>125</v>
@@ -4316,10 +4319,10 @@
       <c r="F16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
       <c r="L16" s="66"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4330,7 +4333,7 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36" t="s">
         <v>126</v>
@@ -4344,10 +4347,10 @@
       <c r="F17" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
       <c r="L17" s="66"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -4358,7 +4361,7 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36" t="s">
         <v>127</v>
@@ -4372,13 +4375,13 @@
       <c r="F18" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="193"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36" t="s">
         <v>128</v>
@@ -4392,13 +4395,13 @@
       <c r="F19" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36" t="s">
         <v>129</v>
@@ -4412,13 +4415,13 @@
       <c r="F20" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
+      <c r="G20" s="1